--- a/Research And Development Project/Documents/Resources/Paper/supplements.xlsx
+++ b/Research And Development Project/Documents/Resources/Paper/supplements.xlsx
@@ -526,11 +526,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="365411632"/>
-        <c:axId val="365406144"/>
+        <c:axId val="301683592"/>
+        <c:axId val="301676144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="365411632"/>
+        <c:axId val="301683592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,12 +642,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365406144"/>
+        <c:crossAx val="301676144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="365406144"/>
+        <c:axId val="301676144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,7 +760,2895 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365411632"/>
+        <c:crossAx val="301683592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100">
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Cross</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100" baseline="0">
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> Correlations Of Commits &amp; Starts -6 lag</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1100">
+              <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AF$2:$AF$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.29090462227855801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-8.7758276214469397E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.1934426452722597E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14145348418961101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14308341619411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3168049880006698E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.105273433201033</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7110218067505194E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.6174194649495592E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.188304827972651</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.239621276252479</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.19978662692374E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.2990676515634295E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.15437825144585399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47374703779581101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.8083906901734302E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.7377258930419202E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.19490224942451501</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6851846883955E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5931091790733302E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8860353178621497E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.132881346164303</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.187114892652299</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.22108348538570799</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.17055718296135899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.101288915635282</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7.1782956610230306E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.1697358750295705E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.207747025735386</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.33783093532578101</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.6415614140222002E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.9722044399237299E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.6955947045117601E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.12870630386592399</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.3824798604004306E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.6684543132893501E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.82128117425828E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.1672280217612801E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-9.8362622440601996E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-8.8336957885363707E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.32876177943951501</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.9673096795661801E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.12032602224506</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-4.4750855822201903E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.14485486651282301</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.3167388756441901E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.4937774028986801E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.26374990181013E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.29563750228452301</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.110283766418325</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.79283426967512E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.1720630049473302E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.23007924884189501</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.20561248446712099</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-5.5509410863736598E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.0756165402298599E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.5489875884511398E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.22624099956993299</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.20246115053961999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.14056027798904899</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.23224648413569601</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.134983459614121</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.11408441170989</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-3.7683708284622502E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-6.3077229951250702E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.172262374197549</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.164615179511059</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.121458590991738</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-8.6061294893427398E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.40580621722624E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.13269206229831099</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2430746403486599E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.21876556884161799</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.220623597179293</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.0011455922274002E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-4.0242250173411001E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.106477570995402</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.10092462585397</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.161945590627221</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-3.5830442773167798E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.36180296068508599</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.7719563340745103E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.13035288532938699</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.32475603384172602</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.22058787971935501</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.20081494741091199</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.40532041709069599</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-5.6434892622053701E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.10889196340285</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.75963817445832E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.17349725418867201</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.22425189524530401</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.4675814755657502E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.20915411216261801</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.34711039861423898</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-8.6721291262194605E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.32842624483590199</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.24528090385333801</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.199789926026502</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.11860888399554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="330979840"/>
+        <c:axId val="330979056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="330979840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100">
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Projects</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="330979056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="330979056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Crosss Correlation Coeffecient</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="330979840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100">
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Cross</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100" baseline="0">
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> Correlations Of Commits &amp; Starts -7 lag</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1100">
+              <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AL$2:$AL$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.22713164589242901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.105763736497462</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.7899144599436002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16768545035811799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14933672098909401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0654321850493702E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.8832047086033997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6262299330494795E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.12909585212832E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19670257311393599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15502080136138199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2081732685595399E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3114066129107699E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.137501734269696</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.51062974326536303</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.100723134412414</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.8789752184192E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.124614999038493</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.6169697836935299E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.7070087544859297E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3712474172915803E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.125370972901095</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.143086868025182</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.26080545485950102</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-9.1783863476385993E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.116956819279253</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7.8468194237324804E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.50807735155423E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.18355217316816999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.27463064982494301</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7459458527726697E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.85221717386738E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.117493925374373</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.0430497282178399E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-5.4083734690991397E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.81147865771387E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.3394175199099397E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.4298006944945699E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-9.3954506380254904E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-5.1066255044583796E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.31861293136778301</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.5438572254586198E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.124003010927468</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.3785970223068002E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.120413574213216</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.4657985171528601E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.78446207166865E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-5.8046147970670099E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.282166196554621</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.11951000560557599</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.9046325308850798E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.6511209468488003E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.24347845272423799</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.22040606872409099</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-3.3504187661345601E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-3.6426728309713899E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.8267211441309302E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.217839709898413</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.16202165311810099</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.15567002351471901</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.20996007400715</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.16690605078506901</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.13468012685056199</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-6.2719734207977093E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.12761504450442901</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.176000998300988</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.129014500260865</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.114341489599387</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.123093220954216</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-2.38005838931316E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.14770652499019199</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.9513488822302302E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.19428436287168999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.20926826575285601</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.6740980078003499E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.6890087458391701E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-1.6003227785289099E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.10378784550538001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.14565679236267801</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-7.0654620153541597E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.36018899862009102</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.3762351538637398E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.6869808933440994E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.315334001766919</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.24927988743302501</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.20259222550797701</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.42273450603472801</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-7.7880362411294701E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.7191112230452097E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.8790653167609201E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.17152932948131699</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.29462662067929701</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.3753636491023901E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.22823682163805201</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.37618690993077097</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.5861353502998001E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.34428578944201499</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.287189210094217</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-6.6432524251845093E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.16617569086901299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="336316096"/>
+        <c:axId val="336320016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="336316096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100">
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Projects</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336320016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="336320016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Crosss Correlation Coeffecient</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336316096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100">
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Cross</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100" baseline="0">
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> Correlations Of Commits &amp; Starts -8 lag</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1100">
+              <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AR$2:$AR$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.24046580420146599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0620858056577301E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.8246754210897903E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13935100334028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.131636479523564</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9573728395750299E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.4837168350263406E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2426039871809803E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.9272884858787502E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24069014970246799</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26673046443563297</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0970631961346501E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5117353048973495E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.117266155738108</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.50664837958701003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.8942510796097297E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.116958588784047</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.20182935460229801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.7846537558433007E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.107042805914442</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.84965800055988E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.174254344526202</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.102832654657945</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.29479145683726699</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.15857685003052099</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.124248780966898</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6.2146526522244901E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7050996841974699E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.130851640423993</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.30148155249564801</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.6710322517280403E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.34205822527475E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.122456870594989</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.24628369599861499</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-7.1228290117211795E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.9639710645736999E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.6985546603834998E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.1102346872739797E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7.4408829195869802E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.7534413478176799E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.31652338672649299</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.2294088691728597E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.7974806559628693E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-4.3476694782868898E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.9273861317142206E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-7.9634100874850497E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-6.4252902091870602E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.7044103061934902E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.246757016952633</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.112175427925018</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-4.3634369761820502E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.8773176424791402E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.262789634116121</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.20660223889547999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.03169243772983E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-4.5844435732437398E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-6.1535084276915101E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.234913231781752</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.23460828564934499</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.11452011765904101</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.20998710269741699</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.15682817525850801</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.107031836997823</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-4.56887983010279E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-7.4554280669321196E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.14900359096936799</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.13850080147879701</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.117827849474036</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.122967933518836</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.4405739648820101E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.172301749479812</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.3205574370489897E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.235601947169715</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.19905622350102301</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.8236453821552503E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-6.2526581901748104E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-3.2895351652223799E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.127497375703023</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.165854129646924</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-6.5956966988410901E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.337640245531658</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.7644052104724498E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.8438005143061004E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.33804799428660398</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.237010279715276</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.20841413247823901</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.44964965544941798</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-5.1359532064824298E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-1.15719385103981E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.8779654724180298E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.173486329505882</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.27596530374110301</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-2.08175194960591E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.20499455669611799</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.37913414599803602</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-8.2967572523800603E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.36982411432844797</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.31743622868035698</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-9.5805673935118504E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.105705843609656</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="330970432"/>
+        <c:axId val="330970824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="330970432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100">
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Projects</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="330970824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="330970824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Crosss Correlation Coeffecient</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="330970432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100">
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Cross</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100" baseline="0">
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> Correlations Of Commits &amp; Starts -9 lag</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1100">
+              <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AX$2:$AX$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.26381913639822702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.3517670479818095E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.3163866333363603E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17418603873885399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.127541203773027</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.22428266891578E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.3336345686098102E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.111905195526819</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.30549653111376E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26069525785487002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.21260207476713899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7872698724174499E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.5431449158385499E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.9135257991883095E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.52444366764690298</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.9112079930481906E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.103064861413073</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.202527788661652</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.07450462380562E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.1952319507409702E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8108117817770699E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.17647676574358401</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.177456696642699</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.192921392318436</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.12815431838121899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.15218873864403501</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.7166445944001198E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-4.7835128595644601E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.183400514483226</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.32192698193337399</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.23804049089401E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.84415439549356E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.213259180021207</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.15253855578001799</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.121406840224241</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.3543889716978806E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.18416996307684699</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.7945736624375803E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-7.6952262162366697E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3.4623382268451401E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.30885940525134797</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.3831170944061498E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.102113549972389</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-3.57385942005733E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.15549853350095499</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.28958160732252E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.4364857440550495E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.63263068320313E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.22855074712235701</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.111647179852652</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-5.4953582395036699E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.2630893505472098E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.26236417543100798</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.21869991151128201</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.0395899766736897E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-4.8528009259393802E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-5.8276240106170697E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.214659395479955</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.24927450370541501</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.123421566455111</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.22098078997738099</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.148408278775537</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-9.1537268267732605E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.9387732319422601E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.3176437083667999E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.162917404407941</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.112271600953878</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-8.8232553900242705E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-7.5488379520733701E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.5514837045427001E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.179226444349943</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.89238751031795E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.107638061163287</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.17569511235987501</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-1.7727152325221301E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-5.6684907890362103E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-2.63169864556899E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.14770237088306801</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.15077979729683899</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-6.5637346170418401E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.31996998746033001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.5613835085285802E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.4128709804002897E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.30445941644320801</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.24122143241657101</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.11884551822878001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.42134652620798801</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-6.10811883804908E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.0991040840947101E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.4668530837150499E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.17784089975811701</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.26904038273876901</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-9.7199995228409598E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.27925879677945498</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.38643036514677498</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.18324592781522001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.37298867105327499</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.196556638545518</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.143530523508548</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.122602519961709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="336320408"/>
+        <c:axId val="336318448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="336320408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1100">
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Projects</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336318448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="336318448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB">
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Crosss Correlation Coeffecient</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="336320408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1244,11 +4132,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="402248512"/>
-        <c:axId val="402249296"/>
+        <c:axId val="303166144"/>
+        <c:axId val="303164576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="402248512"/>
+        <c:axId val="303166144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,12 +4250,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402249296"/>
+        <c:crossAx val="303164576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="402249296"/>
+        <c:axId val="303164576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1482,7 +4370,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402248512"/>
+        <c:crossAx val="303166144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1966,11 +4854,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="402242632"/>
-        <c:axId val="402236752"/>
+        <c:axId val="303169280"/>
+        <c:axId val="303168496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="402242632"/>
+        <c:axId val="303169280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2084,12 +4972,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402236752"/>
+        <c:crossAx val="303168496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="402236752"/>
+        <c:axId val="303168496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2204,7 +5092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402242632"/>
+        <c:crossAx val="303169280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2688,11 +5576,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="402238320"/>
-        <c:axId val="402239104"/>
+        <c:axId val="303166928"/>
+        <c:axId val="303167320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="402238320"/>
+        <c:axId val="303166928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2806,12 +5694,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402239104"/>
+        <c:crossAx val="303167320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="402239104"/>
+        <c:axId val="303167320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2926,7 +5814,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402238320"/>
+        <c:crossAx val="303166928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3410,11 +6298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="357855672"/>
-        <c:axId val="357856456"/>
+        <c:axId val="303163400"/>
+        <c:axId val="303164968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="357855672"/>
+        <c:axId val="303163400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3528,12 +6416,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357856456"/>
+        <c:crossAx val="303164968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="357856456"/>
+        <c:axId val="303164968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3648,7 +6536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357855672"/>
+        <c:crossAx val="303163400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4132,11 +7020,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406554048"/>
-        <c:axId val="406557968"/>
+        <c:axId val="303166536"/>
+        <c:axId val="301678496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406554048"/>
+        <c:axId val="303166536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4250,12 +7138,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406557968"/>
+        <c:crossAx val="301678496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406557968"/>
+        <c:axId val="301678496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4370,7 +7258,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406554048"/>
+        <c:crossAx val="303166536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4620,11 +7508,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="404753392"/>
-        <c:axId val="404756136"/>
+        <c:axId val="328385352"/>
+        <c:axId val="328387704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="404753392"/>
+        <c:axId val="328385352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4734,7 +7622,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404756136"/>
+        <c:crossAx val="328387704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4742,7 +7630,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="404756136"/>
+        <c:axId val="328387704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4851,7 +7739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404753392"/>
+        <c:crossAx val="328385352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5326,11 +8214,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="407044512"/>
-        <c:axId val="414916544"/>
+        <c:axId val="328390448"/>
+        <c:axId val="328390056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="407044512"/>
+        <c:axId val="328390448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5444,12 +8332,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414916544"/>
+        <c:crossAx val="328390056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="414916544"/>
+        <c:axId val="328390056"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5572,7 +8460,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407044512"/>
+        <c:crossAx val="328390448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6054,11 +8942,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406555224"/>
-        <c:axId val="406556008"/>
+        <c:axId val="328391624"/>
+        <c:axId val="328388488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406555224"/>
+        <c:axId val="328391624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6172,12 +9060,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406556008"/>
+        <c:crossAx val="328388488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406556008"/>
+        <c:axId val="328388488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6299,7 +9187,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406555224"/>
+        <c:crossAx val="328391624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6349,6 +9237,114 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
   <a:schemeClr val="dk1"/>
   <cs:variation>
@@ -6571,6 +9567,2070 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11487,6 +16547,134 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>448234</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>107578</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>475131</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>439271</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>125508</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11753,10 +16941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA218"/>
+  <dimension ref="A1:AX218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S118" sqref="S118"/>
+    <sheetView tabSelected="1" topLeftCell="AE2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AV16" sqref="AV16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11765,7 +16953,7 @@
     <col min="2" max="2" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11784,8 +16972,20 @@
       <c r="AA1">
         <v>0</v>
       </c>
+      <c r="AF1">
+        <v>-6</v>
+      </c>
+      <c r="AL1">
+        <v>-7</v>
+      </c>
+      <c r="AR1">
+        <v>-8</v>
+      </c>
+      <c r="AX1">
+        <v>-9</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.242973336167632</v>
       </c>
@@ -11804,8 +17004,20 @@
       <c r="AA2">
         <v>0.29394489751657499</v>
       </c>
+      <c r="AF2">
+        <v>0.29090462227855801</v>
+      </c>
+      <c r="AL2">
+        <v>0.22713164589242901</v>
+      </c>
+      <c r="AR2">
+        <v>0.24046580420146599</v>
+      </c>
+      <c r="AX2">
+        <v>0.26381913639822702</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-0.24267176871211299</v>
       </c>
@@ -11824,8 +17036,20 @@
       <c r="AA3">
         <v>-0.111477469314994</v>
       </c>
+      <c r="AF3">
+        <v>-8.7758276214469397E-2</v>
+      </c>
+      <c r="AL3">
+        <v>-0.105763736497462</v>
+      </c>
+      <c r="AR3">
+        <v>-2.0620858056577301E-2</v>
+      </c>
+      <c r="AX3">
+        <v>-7.3517670479818095E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-3.4534981519391897E-2</v>
       </c>
@@ -11844,8 +17068,20 @@
       <c r="AA4">
         <v>-3.0369665895078799E-3</v>
       </c>
+      <c r="AF4">
+        <v>-3.1934426452722597E-2</v>
+      </c>
+      <c r="AL4">
+        <v>-2.7899144599436002E-2</v>
+      </c>
+      <c r="AR4">
+        <v>-8.8246754210897903E-3</v>
+      </c>
+      <c r="AX4">
+        <v>-4.3163866333363603E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.167167168487973</v>
       </c>
@@ -11864,8 +17100,20 @@
       <c r="AA5">
         <v>0.18276863391092099</v>
       </c>
+      <c r="AF5">
+        <v>0.14145348418961101</v>
+      </c>
+      <c r="AL5">
+        <v>0.16768545035811799</v>
+      </c>
+      <c r="AR5">
+        <v>0.13935100334028</v>
+      </c>
+      <c r="AX5">
+        <v>0.17418603873885399</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.20012838723000201</v>
       </c>
@@ -11884,8 +17132,20 @@
       <c r="AA6">
         <v>0.26065320067623798</v>
       </c>
+      <c r="AF6">
+        <v>0.14308341619411</v>
+      </c>
+      <c r="AL6">
+        <v>0.14933672098909401</v>
+      </c>
+      <c r="AR6">
+        <v>0.131636479523564</v>
+      </c>
+      <c r="AX6">
+        <v>0.127541203773027</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9.3002615443318795E-2</v>
       </c>
@@ -11904,8 +17164,20 @@
       <c r="AA7">
         <v>0.69508715882706995</v>
       </c>
+      <c r="AF7">
+        <v>3.3168049880006698E-2</v>
+      </c>
+      <c r="AL7">
+        <v>3.0654321850493702E-2</v>
+      </c>
+      <c r="AR7">
+        <v>1.9573728395750299E-2</v>
+      </c>
+      <c r="AX7">
+        <v>1.22428266891578E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-4.56415196339965E-2</v>
       </c>
@@ -11924,8 +17196,20 @@
       <c r="AA8">
         <v>2.3716420152627E-2</v>
       </c>
+      <c r="AF8">
+        <v>-0.105273433201033</v>
+      </c>
+      <c r="AL8">
+        <v>-8.8832047086033997E-2</v>
+      </c>
+      <c r="AR8">
+        <v>-8.4837168350263406E-2</v>
+      </c>
+      <c r="AX8">
+        <v>-5.3336345686098102E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6.0578578724319E-3</v>
       </c>
@@ -11944,8 +17228,20 @@
       <c r="AA9">
         <v>-4.7760087002256903E-2</v>
       </c>
+      <c r="AF9">
+        <v>9.7110218067505194E-2</v>
+      </c>
+      <c r="AL9">
+        <v>6.6262299330494795E-2</v>
+      </c>
+      <c r="AR9">
+        <v>7.2426039871809803E-2</v>
+      </c>
+      <c r="AX9">
+        <v>0.111905195526819</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-0.120547905192703</v>
       </c>
@@ -11964,8 +17260,20 @@
       <c r="AA10">
         <v>-0.14279433549425299</v>
       </c>
+      <c r="AF10">
+        <v>-8.6174194649495592E-3</v>
+      </c>
+      <c r="AL10">
+        <v>-4.12909585212832E-2</v>
+      </c>
+      <c r="AR10">
+        <v>-4.9272884858787502E-2</v>
+      </c>
+      <c r="AX10">
+        <v>-3.30549653111376E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-8.4531742355492805E-3</v>
       </c>
@@ -11984,8 +17292,20 @@
       <c r="AA11">
         <v>-9.38719807271369E-2</v>
       </c>
+      <c r="AF11">
+        <v>0.188304827972651</v>
+      </c>
+      <c r="AL11">
+        <v>0.19670257311393599</v>
+      </c>
+      <c r="AR11">
+        <v>0.24069014970246799</v>
+      </c>
+      <c r="AX11">
+        <v>0.26069525785487002</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.29049304697997402</v>
       </c>
@@ -12004,8 +17324,20 @@
       <c r="AA12">
         <v>0.32415093750836699</v>
       </c>
+      <c r="AF12">
+        <v>0.239621276252479</v>
+      </c>
+      <c r="AL12">
+        <v>0.15502080136138199</v>
+      </c>
+      <c r="AR12">
+        <v>0.26673046443563297</v>
+      </c>
+      <c r="AX12">
+        <v>0.21260207476713899</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.13635353103940701</v>
       </c>
@@ -12024,8 +17356,20 @@
       <c r="AA13">
         <v>0.26068236497970898</v>
       </c>
+      <c r="AF13">
+        <v>5.19978662692374E-2</v>
+      </c>
+      <c r="AL13">
+        <v>5.2081732685595399E-2</v>
+      </c>
+      <c r="AR13">
+        <v>3.0970631961346501E-2</v>
+      </c>
+      <c r="AX13">
+        <v>2.7872698724174499E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-1.59567258033208E-2</v>
       </c>
@@ -12044,8 +17388,20 @@
       <c r="AA14">
         <v>7.7002541741847102E-3</v>
       </c>
+      <c r="AF14">
+        <v>-6.2990676515634295E-2</v>
+      </c>
+      <c r="AL14">
+        <v>2.3114066129107699E-2</v>
+      </c>
+      <c r="AR14">
+        <v>6.5117353048973495E-2</v>
+      </c>
+      <c r="AX14">
+        <v>-7.5431449158385499E-3</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>-0.131968407881974</v>
       </c>
@@ -12064,8 +17420,20 @@
       <c r="AA15">
         <v>-0.12124003113661699</v>
       </c>
+      <c r="AF15">
+        <v>-0.15437825144585399</v>
+      </c>
+      <c r="AL15">
+        <v>-0.137501734269696</v>
+      </c>
+      <c r="AR15">
+        <v>-0.117266155738108</v>
+      </c>
+      <c r="AX15">
+        <v>-6.9135257991883095E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.52741303418273699</v>
       </c>
@@ -12084,8 +17452,20 @@
       <c r="AA16">
         <v>0.50816887258429999</v>
       </c>
+      <c r="AF16">
+        <v>0.47374703779581101</v>
+      </c>
+      <c r="AL16">
+        <v>0.51062974326536303</v>
+      </c>
+      <c r="AR16">
+        <v>0.50664837958701003</v>
+      </c>
+      <c r="AX16">
+        <v>0.52444366764690298</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-9.0504017911919102E-2</v>
       </c>
@@ -12104,8 +17484,20 @@
       <c r="AA17">
         <v>-7.7519896839760793E-2</v>
       </c>
+      <c r="AF17">
+        <v>-8.8083906901734302E-2</v>
+      </c>
+      <c r="AL17">
+        <v>-0.100723134412414</v>
+      </c>
+      <c r="AR17">
+        <v>-9.8942510796097297E-2</v>
+      </c>
+      <c r="AX17">
+        <v>-9.9112079930481906E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.23790821174215401</v>
       </c>
@@ -12124,8 +17516,20 @@
       <c r="AA18">
         <v>0.57550385851718</v>
       </c>
+      <c r="AF18">
+        <v>-2.7377258930419202E-2</v>
+      </c>
+      <c r="AL18">
+        <v>-2.8789752184192E-2</v>
+      </c>
+      <c r="AR18">
+        <v>0.116958588784047</v>
+      </c>
+      <c r="AX18">
+        <v>0.103064861413073</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-0.128057223335661</v>
       </c>
@@ -12144,8 +17548,20 @@
       <c r="AA19">
         <v>0.111856090955369</v>
       </c>
+      <c r="AF19">
+        <v>0.19490224942451501</v>
+      </c>
+      <c r="AL19">
+        <v>-0.124614999038493</v>
+      </c>
+      <c r="AR19">
+        <v>-0.20182935460229801</v>
+      </c>
+      <c r="AX19">
+        <v>-0.202527788661652</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-4.6303723538403598E-2</v>
       </c>
@@ -12164,8 +17580,20 @@
       <c r="AA20">
         <v>-6.1917260342910403E-2</v>
       </c>
+      <c r="AF20">
+        <v>1.6851846883955E-2</v>
+      </c>
+      <c r="AL20">
+        <v>-1.6169697836935299E-2</v>
+      </c>
+      <c r="AR20">
+        <v>-6.7846537558433007E-2</v>
+      </c>
+      <c r="AX20">
+        <v>-4.07450462380562E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9.7627375915978094E-3</v>
       </c>
@@ -12184,8 +17612,20 @@
       <c r="AA21">
         <v>6.4005241912662006E-2</v>
       </c>
+      <c r="AF21">
+        <v>2.5931091790733302E-2</v>
+      </c>
+      <c r="AL21">
+        <v>6.7070087544859297E-2</v>
+      </c>
+      <c r="AR21">
+        <v>0.107042805914442</v>
+      </c>
+      <c r="AX21">
+        <v>9.1952319507409702E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9.2115311141146503E-2</v>
       </c>
@@ -12204,8 +17644,20 @@
       <c r="AA22">
         <v>0.110781109786439</v>
       </c>
+      <c r="AF22">
+        <v>5.8860353178621497E-2</v>
+      </c>
+      <c r="AL22">
+        <v>5.3712474172915803E-2</v>
+      </c>
+      <c r="AR22">
+        <v>2.84965800055988E-2</v>
+      </c>
+      <c r="AX22">
+        <v>5.8108117817770699E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.14595374426802099</v>
       </c>
@@ -12224,8 +17676,20 @@
       <c r="AA23">
         <v>0.116767751530042</v>
       </c>
+      <c r="AF23">
+        <v>0.132881346164303</v>
+      </c>
+      <c r="AL23">
+        <v>0.125370972901095</v>
+      </c>
+      <c r="AR23">
+        <v>0.174254344526202</v>
+      </c>
+      <c r="AX23">
+        <v>0.17647676574358401</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>7.1909496220178499E-3</v>
       </c>
@@ -12244,8 +17708,20 @@
       <c r="AA24">
         <v>6.7557828883058002E-2</v>
       </c>
+      <c r="AF24">
+        <v>0.187114892652299</v>
+      </c>
+      <c r="AL24">
+        <v>0.143086868025182</v>
+      </c>
+      <c r="AR24">
+        <v>0.102832654657945</v>
+      </c>
+      <c r="AX24">
+        <v>0.177456696642699</v>
+      </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-0.25167263703265003</v>
       </c>
@@ -12264,8 +17740,20 @@
       <c r="AA25">
         <v>-0.20992355050168701</v>
       </c>
+      <c r="AF25">
+        <v>-0.22108348538570799</v>
+      </c>
+      <c r="AL25">
+        <v>-0.26080545485950102</v>
+      </c>
+      <c r="AR25">
+        <v>-0.29479145683726699</v>
+      </c>
+      <c r="AX25">
+        <v>-0.192921392318436</v>
+      </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-5.4776478537927102E-2</v>
       </c>
@@ -12284,8 +17772,20 @@
       <c r="AA26">
         <v>-1.07471229252633E-2</v>
       </c>
+      <c r="AF26">
+        <v>-0.17055718296135899</v>
+      </c>
+      <c r="AL26">
+        <v>-9.1783863476385993E-2</v>
+      </c>
+      <c r="AR26">
+        <v>-0.15857685003052099</v>
+      </c>
+      <c r="AX26">
+        <v>-0.12815431838121899</v>
+      </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-0.13201342040841299</v>
       </c>
@@ -12304,8 +17804,20 @@
       <c r="AA27">
         <v>-0.102131551585046</v>
       </c>
+      <c r="AF27">
+        <v>-0.101288915635282</v>
+      </c>
+      <c r="AL27">
+        <v>-0.116956819279253</v>
+      </c>
+      <c r="AR27">
+        <v>-0.124248780966898</v>
+      </c>
+      <c r="AX27">
+        <v>-0.15218873864403501</v>
+      </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4.03962573636482E-2</v>
       </c>
@@ -12324,8 +17836,20 @@
       <c r="AA28">
         <v>2.7828234115178901E-2</v>
       </c>
+      <c r="AF28">
+        <v>-7.1782956610230306E-2</v>
+      </c>
+      <c r="AL28">
+        <v>-7.8468194237324804E-2</v>
+      </c>
+      <c r="AR28">
+        <v>-6.2146526522244901E-2</v>
+      </c>
+      <c r="AX28">
+        <v>-4.7166445944001198E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3.4232969530740003E-2</v>
       </c>
@@ -12344,8 +17868,20 @@
       <c r="AA29">
         <v>5.4492117858723203E-2</v>
       </c>
+      <c r="AF29">
+        <v>8.1697358750295705E-3</v>
+      </c>
+      <c r="AL29">
+        <v>2.50807735155423E-2</v>
+      </c>
+      <c r="AR29">
+        <v>2.7050996841974699E-2</v>
+      </c>
+      <c r="AX29">
+        <v>-4.7835128595644601E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>9.5706125882649998E-2</v>
       </c>
@@ -12364,8 +17900,20 @@
       <c r="AA30">
         <v>0.194768235118564</v>
       </c>
+      <c r="AF30">
+        <v>0.207747025735386</v>
+      </c>
+      <c r="AL30">
+        <v>0.18355217316816999</v>
+      </c>
+      <c r="AR30">
+        <v>0.130851640423993</v>
+      </c>
+      <c r="AX30">
+        <v>0.183400514483226</v>
+      </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.327584591537043</v>
       </c>
@@ -12384,8 +17932,20 @@
       <c r="AA31">
         <v>0.25586200218939398</v>
       </c>
+      <c r="AF31">
+        <v>0.33783093532578101</v>
+      </c>
+      <c r="AL31">
+        <v>0.27463064982494301</v>
+      </c>
+      <c r="AR31">
+        <v>0.30148155249564801</v>
+      </c>
+      <c r="AX31">
+        <v>0.32192698193337399</v>
+      </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>-4.3366624552160903E-3</v>
       </c>
@@ -12404,8 +17964,20 @@
       <c r="AA32">
         <v>4.90205828738828E-2</v>
       </c>
+      <c r="AF32">
+        <v>4.6415614140222002E-2</v>
+      </c>
+      <c r="AL32">
+        <v>3.7459458527726697E-2</v>
+      </c>
+      <c r="AR32">
+        <v>3.6710322517280403E-2</v>
+      </c>
+      <c r="AX32">
+        <v>1.23804049089401E-2</v>
+      </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2.5351353359011099E-2</v>
       </c>
@@ -12424,8 +17996,20 @@
       <c r="AA33">
         <v>1.5648295809291599E-2</v>
       </c>
+      <c r="AF33">
+        <v>2.9722044399237299E-2</v>
+      </c>
+      <c r="AL33">
+        <v>1.85221717386738E-2</v>
+      </c>
+      <c r="AR33">
+        <v>-1.34205822527475E-2</v>
+      </c>
+      <c r="AX33">
+        <v>-2.84415439549356E-3</v>
+      </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.205643667781676</v>
       </c>
@@ -12444,8 +18028,20 @@
       <c r="AA34">
         <v>6.59704183428758E-2</v>
       </c>
+      <c r="AF34">
+        <v>7.6955947045117601E-2</v>
+      </c>
+      <c r="AL34">
+        <v>0.117493925374373</v>
+      </c>
+      <c r="AR34">
+        <v>0.122456870594989</v>
+      </c>
+      <c r="AX34">
+        <v>0.213259180021207</v>
+      </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1.00250389525699E-2</v>
       </c>
@@ -12464,8 +18060,20 @@
       <c r="AA35">
         <v>2.7514900819657598E-3</v>
       </c>
+      <c r="AF35">
+        <v>-0.12870630386592399</v>
+      </c>
+      <c r="AL35">
+        <v>3.0430497282178399E-2</v>
+      </c>
+      <c r="AR35">
+        <v>-0.24628369599861499</v>
+      </c>
+      <c r="AX35">
+        <v>-0.15253855578001799</v>
+      </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>-6.9703657774172895E-2</v>
       </c>
@@ -12484,8 +18092,20 @@
       <c r="AA36">
         <v>-5.1821304466732202E-3</v>
       </c>
+      <c r="AF36">
+        <v>9.3824798604004306E-3</v>
+      </c>
+      <c r="AL36">
+        <v>-5.4083734690991397E-2</v>
+      </c>
+      <c r="AR36">
+        <v>-7.1228290117211795E-2</v>
+      </c>
+      <c r="AX36">
+        <v>-0.121406840224241</v>
+      </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>8.2978247122439494E-2</v>
       </c>
@@ -12504,8 +18124,20 @@
       <c r="AA37">
         <v>0.19901359520259601</v>
       </c>
+      <c r="AF37">
+        <v>6.6684543132893501E-2</v>
+      </c>
+      <c r="AL37">
+        <v>5.81147865771387E-2</v>
+      </c>
+      <c r="AR37">
+        <v>6.9639710645736999E-2</v>
+      </c>
+      <c r="AX37">
+        <v>8.3543889716978806E-2</v>
+      </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>4.9794009308696298E-2</v>
       </c>
@@ -12524,8 +18156,20 @@
       <c r="AA38">
         <v>-2.22705577490838E-3</v>
       </c>
+      <c r="AF38">
+        <v>-1.82128117425828E-2</v>
+      </c>
+      <c r="AL38">
+        <v>4.3394175199099397E-2</v>
+      </c>
+      <c r="AR38">
+        <v>7.6985546603834998E-2</v>
+      </c>
+      <c r="AX38">
+        <v>0.18416996307684699</v>
+      </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1.8888442513027601E-2</v>
       </c>
@@ -12544,8 +18188,20 @@
       <c r="AA39">
         <v>2.1747657731598601E-2</v>
       </c>
+      <c r="AF39">
+        <v>-2.1672280217612801E-2</v>
+      </c>
+      <c r="AL39">
+        <v>-2.4298006944945699E-2</v>
+      </c>
+      <c r="AR39">
+        <v>5.1102346872739797E-2</v>
+      </c>
+      <c r="AX39">
+        <v>7.7945736624375803E-2</v>
+      </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>-0.12969864139005899</v>
       </c>
@@ -12564,8 +18220,20 @@
       <c r="AA40">
         <v>-1.8747604634426901E-2</v>
       </c>
+      <c r="AF40">
+        <v>-9.8362622440601996E-2</v>
+      </c>
+      <c r="AL40">
+        <v>-9.3954506380254904E-2</v>
+      </c>
+      <c r="AR40">
+        <v>-7.4408829195869802E-2</v>
+      </c>
+      <c r="AX40">
+        <v>-7.6952262162366697E-2</v>
+      </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3.3997621769764098E-2</v>
       </c>
@@ -12584,8 +18252,20 @@
       <c r="AA41">
         <v>3.7957723829174297E-2</v>
       </c>
+      <c r="AF41">
+        <v>-8.8336957885363707E-2</v>
+      </c>
+      <c r="AL41">
+        <v>-5.1066255044583796E-3</v>
+      </c>
+      <c r="AR41">
+        <v>-1.7534413478176799E-2</v>
+      </c>
+      <c r="AX41">
+        <v>-3.4623382268451401E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>-0.34033644640620397</v>
       </c>
@@ -12604,8 +18284,20 @@
       <c r="AA42">
         <v>-0.33866474478759401</v>
       </c>
+      <c r="AF42">
+        <v>-0.32876177943951501</v>
+      </c>
+      <c r="AL42">
+        <v>-0.31861293136778301</v>
+      </c>
+      <c r="AR42">
+        <v>-0.31652338672649299</v>
+      </c>
+      <c r="AX42">
+        <v>-0.30885940525134797</v>
+      </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>3.8480931048065999E-2</v>
       </c>
@@ -12624,8 +18316,20 @@
       <c r="AA43">
         <v>3.3014133548909599E-2</v>
       </c>
+      <c r="AF43">
+        <v>1.9673096795661801E-2</v>
+      </c>
+      <c r="AL43">
+        <v>5.5438572254586198E-2</v>
+      </c>
+      <c r="AR43">
+        <v>3.2294088691728597E-2</v>
+      </c>
+      <c r="AX43">
+        <v>4.3831170944061498E-2</v>
+      </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.104475134119267</v>
       </c>
@@ -12644,8 +18348,20 @@
       <c r="AA44">
         <v>0.18997118706406799</v>
       </c>
+      <c r="AF44">
+        <v>0.12032602224506</v>
+      </c>
+      <c r="AL44">
+        <v>0.124003010927468</v>
+      </c>
+      <c r="AR44">
+        <v>8.7974806559628693E-2</v>
+      </c>
+      <c r="AX44">
+        <v>0.102113549972389</v>
+      </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>-0.103063749499774</v>
       </c>
@@ -12664,8 +18380,20 @@
       <c r="AA45">
         <v>-0.10014377409558201</v>
       </c>
+      <c r="AF45">
+        <v>-4.4750855822201903E-2</v>
+      </c>
+      <c r="AL45">
+        <v>-2.3785970223068002E-2</v>
+      </c>
+      <c r="AR45">
+        <v>-4.3476694782868898E-2</v>
+      </c>
+      <c r="AX45">
+        <v>-3.57385942005733E-2</v>
+      </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.15010066384762899</v>
       </c>
@@ -12684,8 +18412,20 @@
       <c r="AA46">
         <v>0.287329317556062</v>
       </c>
+      <c r="AF46">
+        <v>0.14485486651282301</v>
+      </c>
+      <c r="AL46">
+        <v>0.120413574213216</v>
+      </c>
+      <c r="AR46">
+        <v>9.9273861317142206E-2</v>
+      </c>
+      <c r="AX46">
+        <v>0.15549853350095499</v>
+      </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>-7.5905825751339598E-3</v>
       </c>
@@ -12704,8 +18444,20 @@
       <c r="AA47">
         <v>-2.7499466049318E-3</v>
       </c>
+      <c r="AF47">
+        <v>-1.3167388756441901E-2</v>
+      </c>
+      <c r="AL47">
+        <v>-2.4657985171528601E-2</v>
+      </c>
+      <c r="AR47">
+        <v>-7.9634100874850497E-2</v>
+      </c>
+      <c r="AX47">
+        <v>2.28958160732252E-2</v>
+      </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>-1.76733417046341E-2</v>
       </c>
@@ -12724,8 +18476,20 @@
       <c r="AA48">
         <v>0.112400344622908</v>
       </c>
+      <c r="AF48">
+        <v>-2.4937774028986801E-3</v>
+      </c>
+      <c r="AL48">
+        <v>6.78446207166865E-3</v>
+      </c>
+      <c r="AR48">
+        <v>-6.4252902091870602E-3</v>
+      </c>
+      <c r="AX48">
+        <v>9.4364857440550495E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2.80284509314951E-2</v>
       </c>
@@ -12744,8 +18508,20 @@
       <c r="AA49">
         <v>-3.6210727449189101E-2</v>
       </c>
+      <c r="AF49">
+        <v>-2.26374990181013E-2</v>
+      </c>
+      <c r="AL49">
+        <v>-5.8046147970670099E-2</v>
+      </c>
+      <c r="AR49">
+        <v>-2.7044103061934902E-2</v>
+      </c>
+      <c r="AX49">
+        <v>-1.63263068320313E-2</v>
+      </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.28887235589832999</v>
       </c>
@@ -12764,8 +18540,20 @@
       <c r="AA50">
         <v>0.15346994194680599</v>
       </c>
+      <c r="AF50">
+        <v>0.29563750228452301</v>
+      </c>
+      <c r="AL50">
+        <v>0.282166196554621</v>
+      </c>
+      <c r="AR50">
+        <v>0.246757016952633</v>
+      </c>
+      <c r="AX50">
+        <v>0.22855074712235701</v>
+      </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>-0.15435158236194699</v>
       </c>
@@ -12784,8 +18572,20 @@
       <c r="AA51">
         <v>-0.136042015595677</v>
       </c>
+      <c r="AF51">
+        <v>-0.110283766418325</v>
+      </c>
+      <c r="AL51">
+        <v>-0.11951000560557599</v>
+      </c>
+      <c r="AR51">
+        <v>-0.112175427925018</v>
+      </c>
+      <c r="AX51">
+        <v>-0.111647179852652</v>
+      </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>4.6220545773355499E-2</v>
       </c>
@@ -12804,8 +18604,20 @@
       <c r="AA52">
         <v>7.2351877347404003E-2</v>
       </c>
+      <c r="AF52">
+        <v>2.79283426967512E-2</v>
+      </c>
+      <c r="AL52">
+        <v>1.9046325308850798E-2</v>
+      </c>
+      <c r="AR52">
+        <v>-4.3634369761820502E-2</v>
+      </c>
+      <c r="AX52">
+        <v>-5.4953582395036699E-2</v>
+      </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>4.5773986092936703E-2</v>
       </c>
@@ -12824,8 +18636,20 @@
       <c r="AA53">
         <v>6.5640109215916204E-2</v>
       </c>
+      <c r="AF53">
+        <v>4.1720630049473302E-2</v>
+      </c>
+      <c r="AL53">
+        <v>4.6511209468488003E-2</v>
+      </c>
+      <c r="AR53">
+        <v>6.8773176424791402E-2</v>
+      </c>
+      <c r="AX53">
+        <v>4.2630893505472098E-2</v>
+      </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.20242488860038699</v>
       </c>
@@ -12844,8 +18668,20 @@
       <c r="AA54">
         <v>0.17920126993056501</v>
       </c>
+      <c r="AF54">
+        <v>0.23007924884189501</v>
+      </c>
+      <c r="AL54">
+        <v>0.24347845272423799</v>
+      </c>
+      <c r="AR54">
+        <v>0.262789634116121</v>
+      </c>
+      <c r="AX54">
+        <v>0.26236417543100798</v>
+      </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>-0.18919908705629199</v>
       </c>
@@ -12864,8 +18700,20 @@
       <c r="AA55">
         <v>-0.18960164234750901</v>
       </c>
+      <c r="AF55">
+        <v>-0.20561248446712099</v>
+      </c>
+      <c r="AL55">
+        <v>-0.22040606872409099</v>
+      </c>
+      <c r="AR55">
+        <v>-0.20660223889547999</v>
+      </c>
+      <c r="AX55">
+        <v>-0.21869991151128201</v>
+      </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>-8.6780768608153397E-2</v>
       </c>
@@ -12884,8 +18732,20 @@
       <c r="AA56">
         <v>-7.2040325219373197E-3</v>
       </c>
+      <c r="AF56">
+        <v>-5.5509410863736598E-2</v>
+      </c>
+      <c r="AL56">
+        <v>-3.3504187661345601E-2</v>
+      </c>
+      <c r="AR56">
+        <v>1.03169243772983E-2</v>
+      </c>
+      <c r="AX56">
+        <v>5.0395899766736897E-2</v>
+      </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>-2.55060755258808E-2</v>
       </c>
@@ -12904,8 +18764,20 @@
       <c r="AA57">
         <v>-3.1146567187607999E-2</v>
       </c>
+      <c r="AF57">
+        <v>-3.0756165402298599E-2</v>
+      </c>
+      <c r="AL57">
+        <v>-3.6426728309713899E-2</v>
+      </c>
+      <c r="AR57">
+        <v>-4.5844435732437398E-2</v>
+      </c>
+      <c r="AX57">
+        <v>-4.8528009259393802E-2</v>
+      </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.11545872806548101</v>
       </c>
@@ -12924,8 +18796,20 @@
       <c r="AA58">
         <v>0.55454954369160703</v>
       </c>
+      <c r="AF58">
+        <v>3.5489875884511398E-3</v>
+      </c>
+      <c r="AL58">
+        <v>2.8267211441309302E-3</v>
+      </c>
+      <c r="AR58">
+        <v>-6.1535084276915101E-3</v>
+      </c>
+      <c r="AX58">
+        <v>-5.8276240106170697E-3</v>
+      </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.22597232486367899</v>
       </c>
@@ -12944,8 +18828,20 @@
       <c r="AA59">
         <v>0.223454963437694</v>
       </c>
+      <c r="AF59">
+        <v>0.22624099956993299</v>
+      </c>
+      <c r="AL59">
+        <v>0.217839709898413</v>
+      </c>
+      <c r="AR59">
+        <v>0.234913231781752</v>
+      </c>
+      <c r="AX59">
+        <v>0.214659395479955</v>
+      </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.224158049561613</v>
       </c>
@@ -12964,8 +18860,20 @@
       <c r="AA60">
         <v>0.33894916315217799</v>
       </c>
+      <c r="AF60">
+        <v>0.20246115053961999</v>
+      </c>
+      <c r="AL60">
+        <v>0.16202165311810099</v>
+      </c>
+      <c r="AR60">
+        <v>0.23460828564934499</v>
+      </c>
+      <c r="AX60">
+        <v>0.24927450370541501</v>
+      </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>-0.20837972719071399</v>
       </c>
@@ -12984,8 +18892,20 @@
       <c r="AA61">
         <v>-0.22521476641243701</v>
       </c>
+      <c r="AF61">
+        <v>-0.14056027798904899</v>
+      </c>
+      <c r="AL61">
+        <v>-0.15567002351471901</v>
+      </c>
+      <c r="AR61">
+        <v>-0.11452011765904101</v>
+      </c>
+      <c r="AX61">
+        <v>-0.123421566455111</v>
+      </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0.247065688734389</v>
       </c>
@@ -13004,8 +18924,20 @@
       <c r="AA62">
         <v>0.27052156906595198</v>
       </c>
+      <c r="AF62">
+        <v>0.23224648413569601</v>
+      </c>
+      <c r="AL62">
+        <v>0.20996007400715</v>
+      </c>
+      <c r="AR62">
+        <v>0.20998710269741699</v>
+      </c>
+      <c r="AX62">
+        <v>0.22098078997738099</v>
+      </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>-0.14579158447226301</v>
       </c>
@@ -13024,8 +18956,20 @@
       <c r="AA63">
         <v>-0.18885404350364601</v>
       </c>
+      <c r="AF63">
+        <v>-0.134983459614121</v>
+      </c>
+      <c r="AL63">
+        <v>-0.16690605078506901</v>
+      </c>
+      <c r="AR63">
+        <v>-0.15682817525850801</v>
+      </c>
+      <c r="AX63">
+        <v>-0.148408278775537</v>
+      </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>-0.15594432830562599</v>
       </c>
@@ -13044,8 +18988,20 @@
       <c r="AA64">
         <v>-0.170153486515188</v>
       </c>
+      <c r="AF64">
+        <v>-0.11408441170989</v>
+      </c>
+      <c r="AL64">
+        <v>-0.13468012685056199</v>
+      </c>
+      <c r="AR64">
+        <v>-0.107031836997823</v>
+      </c>
+      <c r="AX64">
+        <v>-9.1537268267732605E-2</v>
+      </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>-2.7986784609342698E-2</v>
       </c>
@@ -13064,8 +19020,20 @@
       <c r="AA65">
         <v>4.0993989428824401E-2</v>
       </c>
+      <c r="AF65">
+        <v>-3.7683708284622502E-2</v>
+      </c>
+      <c r="AL65">
+        <v>-6.2719734207977093E-2</v>
+      </c>
+      <c r="AR65">
+        <v>-4.56887983010279E-2</v>
+      </c>
+      <c r="AX65">
+        <v>-1.9387732319422601E-2</v>
+      </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>-9.5317944344062405E-2</v>
       </c>
@@ -13084,8 +19052,20 @@
       <c r="AA66">
         <v>0.166086122727159</v>
       </c>
+      <c r="AF66">
+        <v>-6.3077229951250702E-2</v>
+      </c>
+      <c r="AL66">
+        <v>-0.12761504450442901</v>
+      </c>
+      <c r="AR66">
+        <v>-7.4554280669321196E-2</v>
+      </c>
+      <c r="AX66">
+        <v>3.3176437083667999E-2</v>
+      </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.27717437447022097</v>
       </c>
@@ -13104,8 +19084,20 @@
       <c r="AA67">
         <v>0.26667888935161599</v>
       </c>
+      <c r="AF67">
+        <v>0.172262374197549</v>
+      </c>
+      <c r="AL67">
+        <v>0.176000998300988</v>
+      </c>
+      <c r="AR67">
+        <v>0.14900359096936799</v>
+      </c>
+      <c r="AX67">
+        <v>0.162917404407941</v>
+      </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>-8.4362745034206099E-2</v>
       </c>
@@ -13124,8 +19116,20 @@
       <c r="AA68">
         <v>-9.20995380015283E-2</v>
       </c>
+      <c r="AF68">
+        <v>-0.164615179511059</v>
+      </c>
+      <c r="AL68">
+        <v>-0.129014500260865</v>
+      </c>
+      <c r="AR68">
+        <v>-0.13850080147879701</v>
+      </c>
+      <c r="AX68">
+        <v>-0.112271600953878</v>
+      </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>-0.118879815634992</v>
       </c>
@@ -13144,8 +19148,20 @@
       <c r="AA69">
         <v>-0.15132751411602699</v>
       </c>
+      <c r="AF69">
+        <v>-0.121458590991738</v>
+      </c>
+      <c r="AL69">
+        <v>-0.114341489599387</v>
+      </c>
+      <c r="AR69">
+        <v>-0.117827849474036</v>
+      </c>
+      <c r="AX69">
+        <v>-8.8232553900242705E-2</v>
+      </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>-2.1154329278538199E-2</v>
       </c>
@@ -13164,8 +19180,20 @@
       <c r="AA70">
         <v>-1.0962819026529701E-2</v>
       </c>
+      <c r="AF70">
+        <v>-8.6061294893427398E-2</v>
+      </c>
+      <c r="AL70">
+        <v>-0.123093220954216</v>
+      </c>
+      <c r="AR70">
+        <v>-0.122967933518836</v>
+      </c>
+      <c r="AX70">
+        <v>-7.5488379520733701E-2</v>
+      </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>-1.7827755817454299E-2</v>
       </c>
@@ -13184,8 +19212,20 @@
       <c r="AA71">
         <v>-8.8949775035677501E-3</v>
       </c>
+      <c r="AF71">
+        <v>2.40580621722624E-2</v>
+      </c>
+      <c r="AL71">
+        <v>-2.38005838931316E-2</v>
+      </c>
+      <c r="AR71">
+        <v>-1.4405739648820101E-2</v>
+      </c>
+      <c r="AX71">
+        <v>-1.5514837045427001E-2</v>
+      </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>-0.16494070375495801</v>
       </c>
@@ -13204,8 +19244,20 @@
       <c r="AA72">
         <v>-0.103311162154522</v>
       </c>
+      <c r="AF72">
+        <v>-0.13269206229831099</v>
+      </c>
+      <c r="AL72">
+        <v>-0.14770652499019199</v>
+      </c>
+      <c r="AR72">
+        <v>-0.172301749479812</v>
+      </c>
+      <c r="AX72">
+        <v>-0.179226444349943</v>
+      </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1.8236463469347699E-3</v>
       </c>
@@ -13224,8 +19276,20 @@
       <c r="AA73">
         <v>9.2031532839260705E-3</v>
       </c>
+      <c r="AF73">
+        <v>1.2430746403486599E-2</v>
+      </c>
+      <c r="AL73">
+        <v>1.9513488822302302E-2</v>
+      </c>
+      <c r="AR73">
+        <v>3.3205574370489897E-2</v>
+      </c>
+      <c r="AX73">
+        <v>3.89238751031795E-3</v>
+      </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.231850324846755</v>
       </c>
@@ -13244,8 +19308,20 @@
       <c r="AA74">
         <v>0.26322943190827602</v>
       </c>
+      <c r="AF74">
+        <v>0.21876556884161799</v>
+      </c>
+      <c r="AL74">
+        <v>0.19428436287168999</v>
+      </c>
+      <c r="AR74">
+        <v>0.235601947169715</v>
+      </c>
+      <c r="AX74">
+        <v>0.107638061163287</v>
+      </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>-0.166119801544373</v>
       </c>
@@ -13264,8 +19340,20 @@
       <c r="AA75">
         <v>-0.14442978175271101</v>
       </c>
+      <c r="AF75">
+        <v>-0.220623597179293</v>
+      </c>
+      <c r="AL75">
+        <v>-0.20926826575285601</v>
+      </c>
+      <c r="AR75">
+        <v>-0.19905622350102301</v>
+      </c>
+      <c r="AX75">
+        <v>-0.17569511235987501</v>
+      </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3.3857061216608003E-2</v>
       </c>
@@ -13284,8 +19372,20 @@
       <c r="AA76">
         <v>-4.6340564851658998E-3</v>
       </c>
+      <c r="AF76">
+        <v>7.0011455922274002E-3</v>
+      </c>
+      <c r="AL76">
+        <v>3.6740980078003499E-2</v>
+      </c>
+      <c r="AR76">
+        <v>3.8236453821552503E-2</v>
+      </c>
+      <c r="AX76">
+        <v>-1.7727152325221301E-2</v>
+      </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>-7.0336226592296103E-2</v>
       </c>
@@ -13304,8 +19404,20 @@
       <c r="AA77">
         <v>-8.0267348538555397E-2</v>
       </c>
+      <c r="AF77">
+        <v>-4.0242250173411001E-2</v>
+      </c>
+      <c r="AL77">
+        <v>-1.6890087458391701E-2</v>
+      </c>
+      <c r="AR77">
+        <v>-6.2526581901748104E-2</v>
+      </c>
+      <c r="AX77">
+        <v>-5.6684907890362103E-2</v>
+      </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0.113485320008298</v>
       </c>
@@ -13324,8 +19436,20 @@
       <c r="AA78">
         <v>0.10508354262120601</v>
       </c>
+      <c r="AF78">
+        <v>0.106477570995402</v>
+      </c>
+      <c r="AL78">
+        <v>-1.6003227785289099E-2</v>
+      </c>
+      <c r="AR78">
+        <v>-3.2895351652223799E-2</v>
+      </c>
+      <c r="AX78">
+        <v>-2.63169864556899E-2</v>
+      </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>3.0129128033055001E-2</v>
       </c>
@@ -13344,8 +19468,20 @@
       <c r="AA79">
         <v>4.3595218026033798E-2</v>
       </c>
+      <c r="AF79">
+        <v>0.10092462585397</v>
+      </c>
+      <c r="AL79">
+        <v>0.10378784550538001</v>
+      </c>
+      <c r="AR79">
+        <v>0.127497375703023</v>
+      </c>
+      <c r="AX79">
+        <v>0.14770237088306801</v>
+      </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>-5.0414657555352099E-2</v>
       </c>
@@ -13364,8 +19500,20 @@
       <c r="AA80">
         <v>-0.12669717502875999</v>
       </c>
+      <c r="AF80">
+        <v>-0.161945590627221</v>
+      </c>
+      <c r="AL80">
+        <v>-0.14565679236267801</v>
+      </c>
+      <c r="AR80">
+        <v>-0.165854129646924</v>
+      </c>
+      <c r="AX80">
+        <v>-0.15077979729683899</v>
+      </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>-5.2240096684982203E-2</v>
       </c>
@@ -13384,8 +19532,20 @@
       <c r="AA81">
         <v>-3.9038395181825503E-2</v>
       </c>
+      <c r="AF81">
+        <v>-3.5830442773167798E-2</v>
+      </c>
+      <c r="AL81">
+        <v>-7.0654620153541597E-2</v>
+      </c>
+      <c r="AR81">
+        <v>-6.5956966988410901E-2</v>
+      </c>
+      <c r="AX81">
+        <v>-6.5637346170418401E-2</v>
+      </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>-0.33715222991722299</v>
       </c>
@@ -13404,8 +19564,20 @@
       <c r="AA82">
         <v>-0.31809298236432298</v>
       </c>
+      <c r="AF82">
+        <v>-0.36180296068508599</v>
+      </c>
+      <c r="AL82">
+        <v>-0.36018899862009102</v>
+      </c>
+      <c r="AR82">
+        <v>-0.337640245531658</v>
+      </c>
+      <c r="AX82">
+        <v>-0.31996998746033001</v>
+      </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1.66875532933758E-2</v>
       </c>
@@ -13424,8 +19596,20 @@
       <c r="AA83">
         <v>1.73186682980347E-2</v>
       </c>
+      <c r="AF83">
+        <v>3.7719563340745103E-2</v>
+      </c>
+      <c r="AL83">
+        <v>5.3762351538637398E-2</v>
+      </c>
+      <c r="AR83">
+        <v>7.7644052104724498E-2</v>
+      </c>
+      <c r="AX83">
+        <v>6.5613835085285802E-2</v>
+      </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>5.1332237440539802E-2</v>
       </c>
@@ -13444,8 +19628,20 @@
       <c r="AA84">
         <v>4.0307118427682599E-3</v>
       </c>
+      <c r="AF84">
+        <v>0.13035288532938699</v>
+      </c>
+      <c r="AL84">
+        <v>6.6869808933440994E-2</v>
+      </c>
+      <c r="AR84">
+        <v>6.8438005143061004E-2</v>
+      </c>
+      <c r="AX84">
+        <v>9.4128709804002897E-2</v>
+      </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0.25594448312238799</v>
       </c>
@@ -13464,8 +19660,20 @@
       <c r="AA85">
         <v>0.26011666533639399</v>
       </c>
+      <c r="AF85">
+        <v>0.32475603384172602</v>
+      </c>
+      <c r="AL85">
+        <v>0.315334001766919</v>
+      </c>
+      <c r="AR85">
+        <v>0.33804799428660398</v>
+      </c>
+      <c r="AX85">
+        <v>0.30445941644320801</v>
+      </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>-0.23272060439757</v>
       </c>
@@ -13484,8 +19692,20 @@
       <c r="AA86">
         <v>-0.208710824362416</v>
       </c>
+      <c r="AF86">
+        <v>-0.22058787971935501</v>
+      </c>
+      <c r="AL86">
+        <v>-0.24927988743302501</v>
+      </c>
+      <c r="AR86">
+        <v>-0.237010279715276</v>
+      </c>
+      <c r="AX86">
+        <v>-0.24122143241657101</v>
+      </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0.17928061465057701</v>
       </c>
@@ -13504,8 +19724,20 @@
       <c r="AA87">
         <v>0.15341375830855999</v>
       </c>
+      <c r="AF87">
+        <v>0.20081494741091199</v>
+      </c>
+      <c r="AL87">
+        <v>0.20259222550797701</v>
+      </c>
+      <c r="AR87">
+        <v>0.20841413247823901</v>
+      </c>
+      <c r="AX87">
+        <v>0.11884551822878001</v>
+      </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0.42517204562537297</v>
       </c>
@@ -13524,8 +19756,20 @@
       <c r="AA88">
         <v>0.47896259432102301</v>
       </c>
+      <c r="AF88">
+        <v>0.40532041709069599</v>
+      </c>
+      <c r="AL88">
+        <v>0.42273450603472801</v>
+      </c>
+      <c r="AR88">
+        <v>0.44964965544941798</v>
+      </c>
+      <c r="AX88">
+        <v>0.42134652620798801</v>
+      </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>-7.4148003358485107E-2</v>
       </c>
@@ -13544,8 +19788,20 @@
       <c r="AA89">
         <v>-8.8746881396904204E-2</v>
       </c>
+      <c r="AF89">
+        <v>-5.6434892622053701E-2</v>
+      </c>
+      <c r="AL89">
+        <v>-7.7880362411294701E-2</v>
+      </c>
+      <c r="AR89">
+        <v>-5.1359532064824298E-2</v>
+      </c>
+      <c r="AX89">
+        <v>-6.10811883804908E-2</v>
+      </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>8.6160696832523295E-2</v>
       </c>
@@ -13564,8 +19820,20 @@
       <c r="AA90">
         <v>0.13767395325221701</v>
       </c>
+      <c r="AF90">
+        <v>0.10889196340285</v>
+      </c>
+      <c r="AL90">
+        <v>5.7191112230452097E-2</v>
+      </c>
+      <c r="AR90">
+        <v>-1.15719385103981E-3</v>
+      </c>
+      <c r="AX90">
+        <v>1.0991040840947101E-2</v>
+      </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0.12899022107646499</v>
       </c>
@@ -13584,8 +19852,20 @@
       <c r="AA91">
         <v>0.17109986634062899</v>
       </c>
+      <c r="AF91">
+        <v>2.75963817445832E-2</v>
+      </c>
+      <c r="AL91">
+        <v>4.8790653167609201E-2</v>
+      </c>
+      <c r="AR91">
+        <v>4.8779654724180298E-2</v>
+      </c>
+      <c r="AX91">
+        <v>7.4668530837150499E-2</v>
+      </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0.15251020836982301</v>
       </c>
@@ -13604,8 +19884,20 @@
       <c r="AA92">
         <v>0.18576632663281201</v>
       </c>
+      <c r="AF92">
+        <v>0.17349725418867201</v>
+      </c>
+      <c r="AL92">
+        <v>0.17152932948131699</v>
+      </c>
+      <c r="AR92">
+        <v>0.173486329505882</v>
+      </c>
+      <c r="AX92">
+        <v>0.17784089975811701</v>
+      </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>-0.22744738954285901</v>
       </c>
@@ -13624,8 +19916,20 @@
       <c r="AA93">
         <v>-0.17075668935352301</v>
       </c>
+      <c r="AF93">
+        <v>-0.22425189524530401</v>
+      </c>
+      <c r="AL93">
+        <v>-0.29462662067929701</v>
+      </c>
+      <c r="AR93">
+        <v>-0.27596530374110301</v>
+      </c>
+      <c r="AX93">
+        <v>-0.26904038273876901</v>
+      </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>6.0622397861395602E-2</v>
       </c>
@@ -13644,8 +19948,20 @@
       <c r="AA94">
         <v>0.10398256089838</v>
       </c>
+      <c r="AF94">
+        <v>7.4675814755657502E-2</v>
+      </c>
+      <c r="AL94">
+        <v>4.3753636491023901E-2</v>
+      </c>
+      <c r="AR94">
+        <v>-2.08175194960591E-2</v>
+      </c>
+      <c r="AX94">
+        <v>-9.7199995228409598E-3</v>
+      </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0.282338210983058</v>
       </c>
@@ -13664,8 +19980,20 @@
       <c r="AA95">
         <v>0.29568905816269497</v>
       </c>
+      <c r="AF95">
+        <v>0.20915411216261801</v>
+      </c>
+      <c r="AL95">
+        <v>0.22823682163805201</v>
+      </c>
+      <c r="AR95">
+        <v>0.20499455669611799</v>
+      </c>
+      <c r="AX95">
+        <v>0.27925879677945498</v>
+      </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0.38233611606907902</v>
       </c>
@@ -13684,8 +20012,20 @@
       <c r="AA96">
         <v>0.44334267768781999</v>
       </c>
+      <c r="AF96">
+        <v>0.34711039861423898</v>
+      </c>
+      <c r="AL96">
+        <v>0.37618690993077097</v>
+      </c>
+      <c r="AR96">
+        <v>0.37913414599803602</v>
+      </c>
+      <c r="AX96">
+        <v>0.38643036514677498</v>
+      </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0.16955333060952299</v>
       </c>
@@ -13704,8 +20044,20 @@
       <c r="AA97">
         <v>0.184208552884044</v>
       </c>
+      <c r="AF97">
+        <v>-8.6721291262194605E-2</v>
+      </c>
+      <c r="AL97">
+        <v>2.5861353502998001E-2</v>
+      </c>
+      <c r="AR97">
+        <v>-8.2967572523800603E-2</v>
+      </c>
+      <c r="AX97">
+        <v>-0.18324592781522001</v>
+      </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0.26758226886826703</v>
       </c>
@@ -13724,8 +20076,20 @@
       <c r="AA98">
         <v>0.32070299971758898</v>
       </c>
+      <c r="AF98">
+        <v>0.32842624483590199</v>
+      </c>
+      <c r="AL98">
+        <v>0.34428578944201499</v>
+      </c>
+      <c r="AR98">
+        <v>0.36982411432844797</v>
+      </c>
+      <c r="AX98">
+        <v>0.37298867105327499</v>
+      </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0.279521329378075</v>
       </c>
@@ -13744,8 +20108,20 @@
       <c r="AA99">
         <v>0.32961687350400698</v>
       </c>
+      <c r="AF99">
+        <v>0.24528090385333801</v>
+      </c>
+      <c r="AL99">
+        <v>0.287189210094217</v>
+      </c>
+      <c r="AR99">
+        <v>0.31743622868035698</v>
+      </c>
+      <c r="AX99">
+        <v>0.196556638545518</v>
+      </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>-6.8239536480630997E-2</v>
       </c>
@@ -13764,8 +20140,20 @@
       <c r="AA100">
         <v>-0.19069435155829201</v>
       </c>
+      <c r="AF100">
+        <v>-0.199789926026502</v>
+      </c>
+      <c r="AL100">
+        <v>-6.6432524251845093E-2</v>
+      </c>
+      <c r="AR100">
+        <v>-9.5805673935118504E-2</v>
+      </c>
+      <c r="AX100">
+        <v>-0.143530523508548</v>
+      </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0.19722562209309599</v>
       </c>
@@ -13784,13 +20172,25 @@
       <c r="AA101">
         <v>0.19410291055300899</v>
       </c>
+      <c r="AF101">
+        <v>0.11860888399554</v>
+      </c>
+      <c r="AL101">
+        <v>0.16617569086901299</v>
+      </c>
+      <c r="AR101">
+        <v>0.105705843609656</v>
+      </c>
+      <c r="AX101">
+        <v>0.122602519961709</v>
+      </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -13798,7 +20198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>93</v>
       </c>

--- a/Research And Development Project/Documents/Resources/Paper/supplements.xlsx
+++ b/Research And Development Project/Documents/Resources/Paper/supplements.xlsx
@@ -142,7 +142,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -526,11 +525,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="301683592"/>
-        <c:axId val="301676144"/>
+        <c:axId val="311863136"/>
+        <c:axId val="311858432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="301683592"/>
+        <c:axId val="311863136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,7 +575,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -642,12 +640,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301676144"/>
+        <c:crossAx val="311858432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301676144"/>
+        <c:axId val="311858432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,7 +691,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -760,7 +757,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301683592"/>
+        <c:crossAx val="311863136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1244,11 +1241,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="330979840"/>
-        <c:axId val="330979056"/>
+        <c:axId val="311577960"/>
+        <c:axId val="311584624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="330979840"/>
+        <c:axId val="311577960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,12 +1359,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330979056"/>
+        <c:crossAx val="311584624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="330979056"/>
+        <c:axId val="311584624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1482,7 +1479,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330979840"/>
+        <c:crossAx val="311577960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1966,11 +1963,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="336316096"/>
-        <c:axId val="336320016"/>
+        <c:axId val="311578352"/>
+        <c:axId val="311580312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="336316096"/>
+        <c:axId val="311578352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2084,12 +2081,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336320016"/>
+        <c:crossAx val="311580312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="336320016"/>
+        <c:axId val="311580312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2204,7 +2201,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336316096"/>
+        <c:crossAx val="311578352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2688,11 +2685,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="330970432"/>
-        <c:axId val="330970824"/>
+        <c:axId val="311577176"/>
+        <c:axId val="311579528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="330970432"/>
+        <c:axId val="311577176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2806,12 +2803,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330970824"/>
+        <c:crossAx val="311579528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="330970824"/>
+        <c:axId val="311579528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2926,7 +2923,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330970432"/>
+        <c:crossAx val="311577176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3410,11 +3407,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="336320408"/>
-        <c:axId val="336318448"/>
+        <c:axId val="311864312"/>
+        <c:axId val="311865880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="336320408"/>
+        <c:axId val="311864312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3528,12 +3525,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336318448"/>
+        <c:crossAx val="311865880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="336318448"/>
+        <c:axId val="311865880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3648,7 +3645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336320408"/>
+        <c:crossAx val="311864312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3685,6 +3682,722 @@
     <a:p>
       <a:pPr>
         <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>% of growth rate values within one standard deviation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15873600174978125"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$119:$R$218</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>92.340423583984304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.857139587402301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.890998840332003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.541664123535099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.637222290039006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.249198913574205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.683547973632798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.335075378417898</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.750625610351506</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.748985290527301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97.543861389160099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.604934692382798</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99.559471130371094</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91.666664123535099</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93.693695068359304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95.683456420898395</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94.736839294433594</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96.446701049804602</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90.038314819335895</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>90.540542602539006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94.392524719238196</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>93.392066955566406</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>96.551727294921804</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95.674743652343693</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94.598152160644503</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>97.032638549804602</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99.162010192871094</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>95.817489624023395</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>98.076919555664006</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>99.185333251953097</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>99.065422058105398</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>94.871795654296804</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>99.283157348632798</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>94.759826660156193</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>99.591835021972599</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>91.505790710449205</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>98.979591369628906</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>96.650718688964801</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>98.091606140136705</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>93.596061706542898</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>98.586570739746094</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>93.706291198730398</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>96.527778625488196</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96.581199645996094</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>97.435897827148395</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>99.222801208496094</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>97.650131225585895</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>91.122718811035099</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>98.571426391601506</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>93.9698486328125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>97.7401123046875</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>94.642860412597599</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>97.756408691406193</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>97.689765930175696</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>88.811187744140597</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>98.792266845703097</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>99.170127868652301</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>97.991966247558594</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>94.871795654296804</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>99.166664123535099</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>95.811515808105398</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>97.297294616699205</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>95.217391967773395</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>91.341987609863196</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>96.120689392089801</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>93.494422912597599</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>98.378379821777301</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>99.239540100097599</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>98.192771911621094</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>95.518867492675696</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>93.697479248046804</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>95.588233947753906</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>98.245613098144503</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>92.119567871093693</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>95.175437927246094</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>99.227798461914006</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>94.482757568359304</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>99.038459777832003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>99.570816040039006</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>97.826087951660099</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>94.805191040039006</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>93.703704833984304</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>97.551017761230398</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>93.315505981445298</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>98.048782348632798</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>92.948715209960895</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>96.437660217285099</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>86.861312866210895</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>97.183097839355398</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89.473686218261705</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>98.688522338867102</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92.579505920410099</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>98.739494323730398</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>97.029701232910099</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>92.405059814453097</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95.904434204101506</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>94.915252685546804</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>95.064933776855398</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>97.319038391113196</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>97.933883666992102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="335065496"/>
+        <c:axId val="335064712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="335065496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Project</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="335064712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="335064712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Percentage </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="335065496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3748,7 +4461,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4132,11 +4844,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="303166144"/>
-        <c:axId val="303164576"/>
+        <c:axId val="311864704"/>
+        <c:axId val="311860784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="303166144"/>
+        <c:axId val="311864704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4184,7 +4896,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4250,12 +4961,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303164576"/>
+        <c:crossAx val="311860784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="303164576"/>
+        <c:axId val="311860784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4303,7 +5014,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4370,7 +5080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303166144"/>
+        <c:crossAx val="311864704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4470,7 +5180,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4854,11 +5563,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="303169280"/>
-        <c:axId val="303168496"/>
+        <c:axId val="311862352"/>
+        <c:axId val="311863528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="303169280"/>
+        <c:axId val="311862352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4906,7 +5615,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4972,12 +5680,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303168496"/>
+        <c:crossAx val="311863528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="303168496"/>
+        <c:axId val="311863528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5025,7 +5733,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5092,7 +5799,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303169280"/>
+        <c:crossAx val="311862352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5192,7 +5899,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5576,11 +6282,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="303166928"/>
-        <c:axId val="303167320"/>
+        <c:axId val="311865488"/>
+        <c:axId val="311861960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="303166928"/>
+        <c:axId val="311865488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5628,7 +6334,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5694,12 +6399,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303167320"/>
+        <c:crossAx val="311861960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="303167320"/>
+        <c:axId val="311861960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5747,7 +6452,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5814,7 +6518,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303166928"/>
+        <c:crossAx val="311865488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5914,7 +6618,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6298,11 +7001,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="303163400"/>
-        <c:axId val="303164968"/>
+        <c:axId val="311861176"/>
+        <c:axId val="311861568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="303163400"/>
+        <c:axId val="311861176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6350,7 +7053,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6416,12 +7118,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303164968"/>
+        <c:crossAx val="311861568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="303164968"/>
+        <c:axId val="311861568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6469,7 +7171,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6536,7 +7237,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303163400"/>
+        <c:crossAx val="311861176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7020,11 +7721,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="303166536"/>
-        <c:axId val="301678496"/>
+        <c:axId val="311863920"/>
+        <c:axId val="311583056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="303166536"/>
+        <c:axId val="311863920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7138,12 +7839,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="301678496"/>
+        <c:crossAx val="311583056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="301678496"/>
+        <c:axId val="311583056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7258,7 +7959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303166536"/>
+        <c:crossAx val="311863920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7508,11 +8209,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="328385352"/>
-        <c:axId val="328387704"/>
+        <c:axId val="311580704"/>
+        <c:axId val="311582664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="328385352"/>
+        <c:axId val="311580704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7622,7 +8323,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328387704"/>
+        <c:crossAx val="311582664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7630,7 +8331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="328387704"/>
+        <c:axId val="311582664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7739,7 +8440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328385352"/>
+        <c:crossAx val="311580704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8214,11 +8915,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="328390448"/>
-        <c:axId val="328390056"/>
+        <c:axId val="311582272"/>
+        <c:axId val="311578744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="328390448"/>
+        <c:axId val="311582272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8332,12 +9033,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328390056"/>
+        <c:crossAx val="311578744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="328390056"/>
+        <c:axId val="311578744"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8460,7 +9161,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328390448"/>
+        <c:crossAx val="311582272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8942,11 +9643,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="328391624"/>
-        <c:axId val="328388488"/>
+        <c:axId val="311581880"/>
+        <c:axId val="311583840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="328391624"/>
+        <c:axId val="311581880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9060,12 +9761,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328388488"/>
+        <c:crossAx val="311583840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="328388488"/>
+        <c:axId val="311583840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9187,7 +9888,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="328391624"/>
+        <c:crossAx val="311581880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9345,6 +10046,33 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
   <a:schemeClr val="dk1"/>
   <cs:variation>
@@ -11631,6 +12359,522 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16675,6 +17919,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16943,8 +18217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AV16" sqref="AV16"/>
+    <sheetView tabSelected="1" topLeftCell="K113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R119" sqref="R119:R218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20219,7 +21493,7 @@
         <v>3.5899382324058902</v>
       </c>
       <c r="R119">
-        <v>94.893615722656193</v>
+        <v>92.340423583984304</v>
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.3">
@@ -20227,7 +21501,7 @@
         <v>604.85420603948899</v>
       </c>
       <c r="R120">
-        <v>97.619049072265597</v>
+        <v>92.857139587402301</v>
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.3">
@@ -20235,7 +21509,7 @@
         <v>4.1706247436142698</v>
       </c>
       <c r="R121">
-        <v>91.706161499023395</v>
+        <v>92.890998840332003</v>
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.3">
@@ -20267,7 +21541,7 @@
         <v>16.718719960161899</v>
       </c>
       <c r="R125">
-        <v>96.962028503417898</v>
+        <v>94.683547973632798</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.3">
@@ -20275,7 +21549,7 @@
         <v>383.43476375479202</v>
       </c>
       <c r="R126">
-        <v>97.120422363281193</v>
+        <v>96.335075378417898</v>
       </c>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.3">
@@ -20291,7 +21565,7 @@
         <v>33.811456842762198</v>
       </c>
       <c r="R128">
-        <v>97.368423461914006</v>
+        <v>95.748985290527301</v>
       </c>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.3">
@@ -20307,7 +21581,7 @@
         <v>55.782612437411601</v>
       </c>
       <c r="R130">
-        <v>98.456787109375</v>
+        <v>96.604934692382798</v>
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.3">
@@ -20323,7 +21597,7 @@
         <v>788.68768727904899</v>
       </c>
       <c r="R132">
-        <v>96.078430175781193</v>
+        <v>91.666664123535099</v>
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.3">
@@ -20339,7 +21613,7 @@
         <v>54.874343875801799</v>
       </c>
       <c r="R134">
-        <v>97.122299194335895</v>
+        <v>95.683456420898395</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.3">
@@ -20347,7 +21621,7 @@
         <v>17.2131182684133</v>
       </c>
       <c r="R135">
-        <v>97.807014465332003</v>
+        <v>94.736839294433594</v>
       </c>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.3">
@@ -20355,7 +21629,7 @@
         <v>19.521817719879799</v>
       </c>
       <c r="R136">
-        <v>95.9390869140625</v>
+        <v>96.446701049804602</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.3">
@@ -20363,7 +21637,7 @@
         <v>12.2729900530503</v>
       </c>
       <c r="R137">
-        <v>90.804595947265597</v>
+        <v>90.038314819335895</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.3">
@@ -20371,7 +21645,7 @@
         <v>4.0930427920603503</v>
       </c>
       <c r="R138">
-        <v>91.621620178222599</v>
+        <v>90.540542602539006</v>
       </c>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.3">
@@ -20379,7 +21653,7 @@
         <v>0.67428334869027196</v>
       </c>
       <c r="R139">
-        <v>92.990653991699205</v>
+        <v>94.392524719238196</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.3">
@@ -20387,7 +21661,7 @@
         <v>7.1729233285251999</v>
       </c>
       <c r="R140">
-        <v>92.9515380859375</v>
+        <v>93.392066955566406</v>
       </c>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.3">
@@ -20395,7 +21669,7 @@
         <v>5.8382219772716102</v>
       </c>
       <c r="R141">
-        <v>97.044334411621094</v>
+        <v>96.551727294921804</v>
       </c>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.3">
@@ -20403,7 +21677,7 @@
         <v>15.3758611134432</v>
       </c>
       <c r="R142">
-        <v>97.058822631835895</v>
+        <v>95.674743652343693</v>
       </c>
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.3">
@@ -20411,7 +21685,7 @@
         <v>5.1156571259225201</v>
       </c>
       <c r="R143">
-        <v>96.574440002441406</v>
+        <v>94.598152160644503</v>
       </c>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.3">
@@ -20419,7 +21693,7 @@
         <v>24.441413893598899</v>
       </c>
       <c r="R144">
-        <v>96.735908508300696</v>
+        <v>97.032638549804602</v>
       </c>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.3">
@@ -20427,7 +21701,7 @@
         <v>12761.933695407</v>
       </c>
       <c r="R145">
-        <v>99.441337585449205</v>
+        <v>99.162010192871094</v>
       </c>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.3">
@@ -20435,7 +21709,7 @@
         <v>6.7429141322961703</v>
       </c>
       <c r="R146">
-        <v>96.197715759277301</v>
+        <v>95.817489624023395</v>
       </c>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.3">
@@ -20467,7 +21741,7 @@
         <v>1.76838317555848</v>
       </c>
       <c r="R150">
-        <v>94.749694824218693</v>
+        <v>94.871795654296804</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.3">
@@ -20483,7 +21757,7 @@
         <v>3.39779320845782</v>
       </c>
       <c r="R152">
-        <v>95.196510314941406</v>
+        <v>94.759826660156193</v>
       </c>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.3">
@@ -20499,7 +21773,7 @@
         <v>1.9750189907515401</v>
       </c>
       <c r="R154">
-        <v>91.119689941406193</v>
+        <v>91.505790710449205</v>
       </c>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.3">
@@ -20515,7 +21789,7 @@
         <v>5.2628667842759196</v>
       </c>
       <c r="R156">
-        <v>96.172248840332003</v>
+        <v>96.650718688964801</v>
       </c>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.3">
@@ -20523,7 +21797,7 @@
         <v>336.76031617758599</v>
       </c>
       <c r="R157">
-        <v>98.664123535156193</v>
+        <v>98.091606140136705</v>
       </c>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.3">
@@ -20531,7 +21805,7 @@
         <v>31.266438984538802</v>
       </c>
       <c r="R158">
-        <v>96.551727294921804</v>
+        <v>93.596061706542898</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.3">
@@ -20555,7 +21829,7 @@
         <v>0.58388623572396403</v>
       </c>
       <c r="R161">
-        <v>96.180557250976506</v>
+        <v>96.527778625488196</v>
       </c>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.3">
@@ -20563,7 +21837,7 @@
         <v>0.26306056454275301</v>
       </c>
       <c r="R162">
-        <v>95.726493835449205</v>
+        <v>96.581199645996094</v>
       </c>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.3">
@@ -20571,7 +21845,7 @@
         <v>211.37409203624199</v>
       </c>
       <c r="R163">
-        <v>98.290596008300696</v>
+        <v>97.435897827148395</v>
       </c>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.3">
@@ -20587,7 +21861,7 @@
         <v>41.225062280425902</v>
       </c>
       <c r="R165">
-        <v>97.911224365234304</v>
+        <v>97.650131225585895</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.3">
@@ -20595,7 +21869,7 @@
         <v>4.7092507662023397</v>
       </c>
       <c r="R166">
-        <v>88.511749267578097</v>
+        <v>91.122718811035099</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.3">
@@ -20603,7 +21877,7 @@
         <v>110.196496261639</v>
       </c>
       <c r="R167">
-        <v>98.730155944824205</v>
+        <v>98.571426391601506</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.3">
@@ -20611,7 +21885,7 @@
         <v>13.063553801754299</v>
       </c>
       <c r="R168">
-        <v>95.728645324707003</v>
+        <v>93.9698486328125</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.3">
@@ -20619,7 +21893,7 @@
         <v>2.1856545229749802</v>
       </c>
       <c r="R169">
-        <v>98.305084228515597</v>
+        <v>97.7401123046875</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.3">
@@ -20627,7 +21901,7 @@
         <v>35.0942272286226</v>
       </c>
       <c r="R170">
-        <v>96.428573608398395</v>
+        <v>94.642860412597599</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.3">
@@ -20643,7 +21917,7 @@
         <v>272.11812762660298</v>
       </c>
       <c r="R172">
-        <v>98.349838256835895</v>
+        <v>97.689765930175696</v>
       </c>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.3">
@@ -20651,7 +21925,7 @@
         <v>7.5690659510271603</v>
       </c>
       <c r="R173">
-        <v>91.142189025878906</v>
+        <v>88.811187744140597</v>
       </c>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.3">
@@ -20659,7 +21933,7 @@
         <v>65.313408363453405</v>
       </c>
       <c r="R174">
-        <v>99.275360107421804</v>
+        <v>98.792266845703097</v>
       </c>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.3">
@@ -20667,7 +21941,7 @@
         <v>1659.6065713278001</v>
       </c>
       <c r="R175">
-        <v>99.585060119628906</v>
+        <v>99.170127868652301</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.3">
@@ -20675,7 +21949,7 @@
         <v>30.601929861380999</v>
       </c>
       <c r="R176">
-        <v>97.590362548828097</v>
+        <v>97.991966247558594</v>
       </c>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.3">
@@ -20683,7 +21957,7 @@
         <v>86.019593398513194</v>
       </c>
       <c r="R177">
-        <v>97.069595336914006</v>
+        <v>94.871795654296804</v>
       </c>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.3">
@@ -20699,7 +21973,7 @@
         <v>19.455411409077701</v>
       </c>
       <c r="R179">
-        <v>95.287956237792898</v>
+        <v>95.811515808105398</v>
       </c>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.3">
@@ -20715,7 +21989,7 @@
         <v>21.562576236946999</v>
       </c>
       <c r="R181">
-        <v>93.478263854980398</v>
+        <v>95.217391967773395</v>
       </c>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.3">
@@ -20723,7 +21997,7 @@
         <v>3.9513654771315601</v>
       </c>
       <c r="R182">
-        <v>89.177490234375</v>
+        <v>91.341987609863196</v>
       </c>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.3">
@@ -20731,7 +22005,7 @@
         <v>80.101756752873499</v>
       </c>
       <c r="R183">
-        <v>98.706893920898395</v>
+        <v>96.120689392089801</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.3">
@@ -20739,7 +22013,7 @@
         <v>4.9329457858265302</v>
       </c>
       <c r="R184">
-        <v>95.353157043457003</v>
+        <v>93.494422912597599</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.3">
@@ -20747,7 +22021,7 @@
         <v>21.543840955101398</v>
       </c>
       <c r="R185">
-        <v>98.918922424316406</v>
+        <v>98.378379821777301</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.3">
@@ -20755,7 +22029,7 @@
         <v>14.1631103822598</v>
       </c>
       <c r="R186">
-        <v>99.619773864746094</v>
+        <v>99.239540100097599</v>
       </c>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.3">
@@ -20763,7 +22037,7 @@
         <v>40.252286720598399</v>
       </c>
       <c r="R187">
-        <v>99.698791503906193</v>
+        <v>98.192771911621094</v>
       </c>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.3">
@@ -20771,7 +22045,7 @@
         <v>17.891509647508801</v>
       </c>
       <c r="R188">
-        <v>96.9339599609375</v>
+        <v>95.518867492675696</v>
       </c>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.3">
@@ -20779,7 +22053,7 @@
         <v>3.9907653104279599</v>
       </c>
       <c r="R189">
-        <v>89.495796203613196</v>
+        <v>93.697479248046804</v>
       </c>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.3">
@@ -20787,7 +22061,7 @@
         <v>13.2414466797063</v>
       </c>
       <c r="R190">
-        <v>97.058822631835895</v>
+        <v>95.588233947753906</v>
       </c>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.3">
@@ -20795,7 +22069,7 @@
         <v>77.5547271717288</v>
       </c>
       <c r="R191">
-        <v>99.122810363769503</v>
+        <v>98.245613098144503</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.3">
@@ -20811,7 +22085,7 @@
         <v>49.329627009428798</v>
       </c>
       <c r="R193">
-        <v>95.614036560058594</v>
+        <v>95.175437927246094</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.3">
@@ -20827,7 +22101,7 @@
         <v>45.198892762200202</v>
       </c>
       <c r="R195">
-        <v>95.862068176269503</v>
+        <v>94.482757568359304</v>
       </c>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.3">
@@ -20851,7 +22125,7 @@
         <v>395.45027211695401</v>
       </c>
       <c r="R198">
-        <v>98.695655822753906</v>
+        <v>97.826087951660099</v>
       </c>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.3">
@@ -20859,7 +22133,7 @@
         <v>2.44164906079427</v>
       </c>
       <c r="R199">
-        <v>95.238098144531193</v>
+        <v>94.805191040039006</v>
       </c>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.3">
@@ -20867,7 +22141,7 @@
         <v>56.959467569874697</v>
       </c>
       <c r="R200">
-        <v>95.185188293457003</v>
+        <v>93.703704833984304</v>
       </c>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.3">
@@ -20875,7 +22149,7 @@
         <v>37.077305513549597</v>
       </c>
       <c r="R201">
-        <v>96.734695434570298</v>
+        <v>97.551017761230398</v>
       </c>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.3">
@@ -20883,7 +22157,7 @@
         <v>8.1646856561196195</v>
       </c>
       <c r="R202">
-        <v>94.919784545898395</v>
+        <v>93.315505981445298</v>
       </c>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.3">
@@ -20891,7 +22165,7 @@
         <v>433.94730284552799</v>
       </c>
       <c r="R203">
-        <v>99.024391174316406</v>
+        <v>98.048782348632798</v>
       </c>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.3">
@@ -20899,7 +22173,7 @@
         <v>1.0710117724049699</v>
       </c>
       <c r="R204">
-        <v>93.589744567871094</v>
+        <v>92.948715209960895</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.3">
@@ -20907,7 +22181,7 @@
         <v>38.530096293555502</v>
       </c>
       <c r="R205">
-        <v>98.982185363769503</v>
+        <v>96.437660217285099</v>
       </c>
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.3">
@@ -20915,7 +22189,7 @@
         <v>2.3121178163685401</v>
       </c>
       <c r="R206">
-        <v>90.145988464355398</v>
+        <v>86.861312866210895</v>
       </c>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.3">
@@ -20923,7 +22197,7 @@
         <v>137.45493110550001</v>
       </c>
       <c r="R207">
-        <v>98.591552734375</v>
+        <v>97.183097839355398</v>
       </c>
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.3">
@@ -20931,7 +22205,7 @@
         <v>4.6293778635267397</v>
       </c>
       <c r="R208">
-        <v>85.714286804199205</v>
+        <v>89.473686218261705</v>
       </c>
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.3">
@@ -20939,7 +22213,7 @@
         <v>32.621104130716098</v>
       </c>
       <c r="R209">
-        <v>99.016395568847599</v>
+        <v>98.688522338867102</v>
       </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.3">
@@ -20947,7 +22221,7 @@
         <v>0.47411942711074301</v>
       </c>
       <c r="R210">
-        <v>90.106010437011705</v>
+        <v>92.579505920410099</v>
       </c>
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.3">
@@ -20955,7 +22229,7 @@
         <v>103.45209530191801</v>
       </c>
       <c r="R211">
-        <v>99.159660339355398</v>
+        <v>98.739494323730398</v>
       </c>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.3">
@@ -20971,7 +22245,7 @@
         <v>12.3384511406708</v>
       </c>
       <c r="R213">
-        <v>89.873420715332003</v>
+        <v>92.405059814453097</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.3">
@@ -20979,7 +22253,7 @@
         <v>156.190189672261</v>
       </c>
       <c r="R214">
-        <v>97.952217102050696</v>
+        <v>95.904434204101506</v>
       </c>
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.3">
@@ -20987,7 +22261,7 @@
         <v>84.389169859358006</v>
       </c>
       <c r="R215">
-        <v>96.610168457031193</v>
+        <v>94.915252685546804</v>
       </c>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.3">
@@ -20995,7 +22269,7 @@
         <v>1.65390887541587</v>
       </c>
       <c r="R216">
-        <v>95.194808959960895</v>
+        <v>95.064933776855398</v>
       </c>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.3">
@@ -21003,7 +22277,7 @@
         <v>9.7609468707659399</v>
       </c>
       <c r="R217">
-        <v>97.587127685546804</v>
+        <v>97.319038391113196</v>
       </c>
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.3">

--- a/Research And Development Project/Documents/Resources/Paper/supplements.xlsx
+++ b/Research And Development Project/Documents/Resources/Paper/supplements.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">commits/starts -2 </t>
   </si>
@@ -48,6 +49,9 @@
   </si>
   <si>
     <t>hp6</t>
+  </si>
+  <si>
+    <t>hp7</t>
   </si>
 </sst>
 </file>
@@ -148,7 +152,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -532,11 +535,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="305784552"/>
-        <c:axId val="305788472"/>
+        <c:axId val="310480680"/>
+        <c:axId val="310483032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="305784552"/>
+        <c:axId val="310480680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -582,7 +585,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -648,12 +650,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305788472"/>
+        <c:crossAx val="310483032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="305788472"/>
+        <c:axId val="310483032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +701,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -766,7 +767,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305784552"/>
+        <c:crossAx val="310480680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1249,11 +1250,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307902680"/>
-        <c:axId val="307903856"/>
+        <c:axId val="308631528"/>
+        <c:axId val="308631920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307902680"/>
+        <c:axId val="308631528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,12 +1367,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307903856"/>
+        <c:crossAx val="308631920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307903856"/>
+        <c:axId val="308631920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,7 +1486,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307902680"/>
+        <c:crossAx val="308631528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1968,11 +1969,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="329623680"/>
-        <c:axId val="329625640"/>
+        <c:axId val="310482640"/>
+        <c:axId val="310487736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="329623680"/>
+        <c:axId val="310482640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2085,12 +2086,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329625640"/>
+        <c:crossAx val="310487736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="329625640"/>
+        <c:axId val="310487736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2204,7 +2205,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329623680"/>
+        <c:crossAx val="310482640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2687,11 +2688,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="329624464"/>
-        <c:axId val="329624856"/>
+        <c:axId val="310487344"/>
+        <c:axId val="310492048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="329624464"/>
+        <c:axId val="310487344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2804,12 +2805,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329624856"/>
+        <c:crossAx val="310492048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="329624856"/>
+        <c:axId val="310492048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2923,7 +2924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329624464"/>
+        <c:crossAx val="310487344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3406,11 +3407,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="329620936"/>
-        <c:axId val="329627208"/>
+        <c:axId val="149505752"/>
+        <c:axId val="308633096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="329620936"/>
+        <c:axId val="149505752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3523,12 +3524,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329627208"/>
+        <c:crossAx val="308633096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="329627208"/>
+        <c:axId val="308633096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3642,7 +3643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329620936"/>
+        <c:crossAx val="149505752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4122,11 +4123,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="329626424"/>
-        <c:axId val="329622896"/>
+        <c:axId val="337150448"/>
+        <c:axId val="337146136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="329626424"/>
+        <c:axId val="337150448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4172,7 +4173,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4238,12 +4238,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329622896"/>
+        <c:crossAx val="337146136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="329622896"/>
+        <c:axId val="337146136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4289,7 +4289,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4356,7 +4355,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329626424"/>
+        <c:crossAx val="337150448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4447,7 +4446,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4834,11 +4832,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148776176"/>
-        <c:axId val="148776568"/>
+        <c:axId val="337148096"/>
+        <c:axId val="337148488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148776176"/>
+        <c:axId val="337148096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4884,7 +4882,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4950,12 +4947,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148776568"/>
+        <c:crossAx val="337148488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148776568"/>
+        <c:axId val="337148488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5001,7 +4998,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5068,7 +5064,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148776176"/>
+        <c:crossAx val="337148096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5157,7 +5153,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5544,11 +5539,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148778136"/>
-        <c:axId val="148780096"/>
+        <c:axId val="337145352"/>
+        <c:axId val="337146920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148778136"/>
+        <c:axId val="337145352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5594,7 +5589,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5660,12 +5654,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148780096"/>
+        <c:crossAx val="337146920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148780096"/>
+        <c:axId val="337146920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5711,7 +5705,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5778,7 +5771,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148778136"/>
+        <c:crossAx val="337145352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5869,7 +5862,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6256,11 +6248,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="396614056"/>
-        <c:axId val="396613664"/>
+        <c:axId val="337148880"/>
+        <c:axId val="337146528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="396614056"/>
+        <c:axId val="337148880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6306,7 +6298,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6372,12 +6363,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396613664"/>
+        <c:crossAx val="337146528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396613664"/>
+        <c:axId val="337146528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6423,7 +6414,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6490,7 +6480,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396614056"/>
+        <c:crossAx val="337148880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6975,11 +6965,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="396616800"/>
-        <c:axId val="396617192"/>
+        <c:axId val="337149272"/>
+        <c:axId val="337147704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="396616800"/>
+        <c:axId val="337149272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7025,7 +7015,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7091,12 +7080,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396617192"/>
+        <c:crossAx val="337147704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396617192"/>
+        <c:axId val="337147704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7142,7 +7131,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7209,7 +7197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396616800"/>
+        <c:crossAx val="337149272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7694,11 +7682,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="396680448"/>
-        <c:axId val="396681232"/>
+        <c:axId val="337150056"/>
+        <c:axId val="337152016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="396680448"/>
+        <c:axId val="337150056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7744,7 +7732,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7810,12 +7797,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396681232"/>
+        <c:crossAx val="337152016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="396681232"/>
+        <c:axId val="337152016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7861,7 +7848,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7928,7 +7914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396680448"/>
+        <c:crossAx val="337150056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8030,7 +8016,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8414,11 +8399,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="305790432"/>
-        <c:axId val="305786512"/>
+        <c:axId val="310483424"/>
+        <c:axId val="310482248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="305790432"/>
+        <c:axId val="310483424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8466,7 +8451,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8532,12 +8516,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305786512"/>
+        <c:crossAx val="310482248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="305786512"/>
+        <c:axId val="310482248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8585,7 +8569,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8652,7 +8635,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305790432"/>
+        <c:crossAx val="310483424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9135,11 +9118,718 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="397069856"/>
-        <c:axId val="397066720"/>
+        <c:axId val="309742224"/>
+        <c:axId val="309740264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="397069856"/>
+        <c:axId val="309742224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Projects</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309740264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="309740264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Crosss Correlation Coeffecient</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309742224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Cross Correlations Of LOC &amp; Issues-9 lag</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$328:$A$427</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.115222197025278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0172136937208601E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0806783066394802E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.17141552581135999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.44604898623428102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.7510067470416998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.124397266434775</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.215179594550412</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.10527676103696E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.25786338247778201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.343683248320308</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13049293526762901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47747765293998801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39259702474756403</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.56795443603837903</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.3483214789074E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.111856614464311</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.10100620518900599</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.7792815793984802E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.28206065729660901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21094606807329599</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.18914234607765901</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23673059599722701</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9333794265832901E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7198502934615501E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.33995804365646298</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.37840151911665798</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7664646466165899E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.15917401638839099</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.48929605632315998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6.9874662579001295E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.20879978510813799</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.390689858485053</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.47237382485437901</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.256662507179162</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.16352446597220399</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.114259919421666</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.22584583726945401</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.11997057623327</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.201981450287429</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.32799306919188098</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.22271014149211901</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.23040784227212E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.53243571642611998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.156975089959971</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-7.2896406965038005E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46968482971645498</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.10892206925554899</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.46917211653777202</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.17286292026323899</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.41755963188188699</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.38092091234726599</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.45677854405982798</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.431183406148476</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.19669739146061199</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.5651246208408299E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.188230388787265</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.116199397736598</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.25370266990858098</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.34172790653435903</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.25927618876449399</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.245919758039994</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.6328407966067701E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.18851413348264501</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.422586373483611</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.30293515623405498</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.13518381211028799</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.109233666922002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.59103917002332396</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.361814755255636</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.17684786810528799</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-2.8819345983184599E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.20666868093017701</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.34585259564184001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.35104115739199299</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.27826861002929798</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.00E+00">
+                  <c:v>6.2431951688381399E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.36251646526765902</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.44247770275679599</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.19090153360592399</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.123238416492972</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.0499906694546201E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.70605985237176E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.90908110346997E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.186638148713203</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-8.1804435769377098E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-8.4342725716841704E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.22284015741577701</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.258830234569002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-3.5967316050966702E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.28364554608662101</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.16255261005615201</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.9263828875103304E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.40813252878058598</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.25411349623625301</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.4794825807384094E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.23058518663630301</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.4865084613622004E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-2.44596170202909E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.39606338537205599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="309741048"/>
+        <c:axId val="309739088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="309741048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9251,12 +9941,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397066720"/>
+        <c:crossAx val="309739088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="397066720"/>
+        <c:axId val="309739088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9369,7 +10059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397069856"/>
+        <c:crossAx val="309741048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9420,7 +10110,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9448,14 +10138,14 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Cross Correlations Of LOC &amp; Issues-9 lag</a:t>
+              <a:t>Cross Correlations Of LOC &amp; Issues-7 lag</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9481,7 +10171,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -9527,309 +10217,309 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$A$328:$A$427</c:f>
+              <c:f>Sheet1!$G$328:$G$427</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.115222197025278</c:v>
+                  <c:v>3.2049708612494301E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0172136937208601E-2</c:v>
+                  <c:v>6.2462801718406798E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0806783066394802E-2</c:v>
+                  <c:v>1.58722383768976E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.17141552581135999</c:v>
+                  <c:v>-0.106902559817833</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.44604898623428102</c:v>
+                  <c:v>-0.43073801224288</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.7510067470416998E-2</c:v>
+                  <c:v>0.13941220332019999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.124397266434775</c:v>
+                  <c:v>0.100185744373209</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.215179594550412</c:v>
+                  <c:v>0.22349291513797701</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.10527676103696E-2</c:v>
+                  <c:v>-0.125411663280416</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.25786338247778201</c:v>
+                  <c:v>-0.141925015873205</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.343683248320308</c:v>
+                  <c:v>-0.27292917624318802</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13049293526762901</c:v>
+                  <c:v>0.119873607184293</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.47747765293998801</c:v>
+                  <c:v>0.48771493325721599</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39259702474756403</c:v>
+                  <c:v>0.44402764548293</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.56795443603837903</c:v>
+                  <c:v>0.57896528055271002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4.3483214789074E-2</c:v>
+                  <c:v>-7.1851670115690297E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.111856614464311</c:v>
+                  <c:v>0.12672534591002799</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.10100620518900599</c:v>
+                  <c:v>0.226165718271084</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.7792815793984802E-2</c:v>
+                  <c:v>4.0035557653767297E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28206065729660901</c:v>
+                  <c:v>0.28475935868931501</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.21094606807329599</c:v>
+                  <c:v>0.16879100457214299</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.18914234607765901</c:v>
+                  <c:v>0.24662668212879599</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.23673059599722701</c:v>
+                  <c:v>0.21577633159460299</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.9333794265832901E-2</c:v>
+                  <c:v>2.24489428261282E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.7198502934615501E-2</c:v>
+                  <c:v>-9.7586772228056996E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.33995804365646298</c:v>
+                  <c:v>-0.35806043431812901</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.37840151911665798</c:v>
+                  <c:v>-0.32600077814151501</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7664646466165899E-2</c:v>
+                  <c:v>3.5278114064794502E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.15917401638839099</c:v>
+                  <c:v>-0.19408697598872099</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.48929605632315998</c:v>
+                  <c:v>-0.50279318939936601</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-6.9874662579001295E-2</c:v>
+                  <c:v>-7.1254237611208096E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.20879978510813799</c:v>
+                  <c:v>-0.24627330644866099</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.390689858485053</c:v>
+                  <c:v>-0.38127832299905701</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.47237382485437901</c:v>
+                  <c:v>0.50325848960111597</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.256662507179162</c:v>
+                  <c:v>0.24812020347858699</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.16352446597220399</c:v>
+                  <c:v>-0.13779082856182401</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.114259919421666</c:v>
+                  <c:v>-0.110341162607635</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.22584583726945401</c:v>
+                  <c:v>0.24106284249034099</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.11997057623327</c:v>
+                  <c:v>7.3262925021413405E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.201981450287429</c:v>
+                  <c:v>-0.19687613116163799</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.32799306919188098</c:v>
+                  <c:v>0.34663064631842599</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.22271014149211901</c:v>
+                  <c:v>0.23197914476269299</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.23040784227212E-2</c:v>
+                  <c:v>7.7396093260419505E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.53243571642611998</c:v>
+                  <c:v>0.54850384280527298</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.156975089959971</c:v>
+                  <c:v>-0.141674298818003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-7.2896406965038005E-2</c:v>
+                  <c:v>-7.9305674365182405E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.46968482971645498</c:v>
+                  <c:v>0.49027274404080101</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.10892206925554899</c:v>
+                  <c:v>9.4935367147750097E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.46917211653777202</c:v>
+                  <c:v>0.49424303353187499</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.17286292026323899</c:v>
+                  <c:v>-0.179240223190479</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.41755963188188699</c:v>
+                  <c:v>0.43776044320417301</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.38092091234726599</c:v>
+                  <c:v>0.36985766487645</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.45677854405982798</c:v>
+                  <c:v>-0.47589062388497899</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.431183406148476</c:v>
+                  <c:v>-0.418868044686387</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.19669739146061199</c:v>
+                  <c:v>-0.21949568205282</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-1.5651246208408299E-3</c:v>
+                  <c:v>1.12164371514431E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.188230388787265</c:v>
+                  <c:v>0.195955906446383</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.116199397736598</c:v>
+                  <c:v>0.132641110374115</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.25370266990858098</c:v>
+                  <c:v>-0.247590291689294</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.34172790653435903</c:v>
+                  <c:v>0.35208036355470701</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.25927618876449399</c:v>
+                  <c:v>-0.23613312845078999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.245919758039994</c:v>
+                  <c:v>0.25019948507211998</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1.6328407966067701E-2</c:v>
+                  <c:v>-1.8129669310009301E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.18851413348264501</c:v>
+                  <c:v>0.184353110785547</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.422586373483611</c:v>
+                  <c:v>0.42121837046656802</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.30293515623405498</c:v>
+                  <c:v>0.314596976504325</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.13518381211028799</c:v>
+                  <c:v>-0.14991689679272599</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.109233666922002</c:v>
+                  <c:v>0.133794287314845</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.59103917002332396</c:v>
+                  <c:v>0.62236031480064902</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.361814755255636</c:v>
+                  <c:v>0.34381433748615903</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.17684786810528799</c:v>
+                  <c:v>0.17976766543684999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-2.8819345983184599E-3</c:v>
+                  <c:v>-3.46573156825759E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.20666868093017701</c:v>
+                  <c:v>0.190851859186252</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.34585259564184001</c:v>
+                  <c:v>0.35764423707684301</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.35104115739199299</c:v>
+                  <c:v>0.34741522145125497</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.27826861002929798</c:v>
-                </c:pt>
-                <c:pt idx="76" formatCode="0.00E+00">
-                  <c:v>6.2431951688381399E-4</c:v>
+                  <c:v>-0.27020948032863301</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.6494083914943801E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.36251646526765902</c:v>
+                  <c:v>0.37818450858769098</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.44247770275679599</c:v>
+                  <c:v>-0.41607628202390801</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.19090153360592399</c:v>
+                  <c:v>0.16712846679076501</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.123238416492972</c:v>
+                  <c:v>0.144992484028756</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.0499906694546201E-2</c:v>
+                  <c:v>0.15972853569620599</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.70605985237176E-2</c:v>
+                  <c:v>5.4923840364433499E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.90908110346997E-3</c:v>
+                  <c:v>1.6893440570153899E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.186638148713203</c:v>
+                  <c:v>-0.154118415873054</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-8.1804435769377098E-2</c:v>
+                  <c:v>-8.3016788905477298E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-8.4342725716841704E-2</c:v>
+                  <c:v>-8.4363608547845997E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.22284015741577701</c:v>
+                  <c:v>-0.218743546338621</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.258830234569002</c:v>
+                  <c:v>0.27249809278270898</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-3.5967316050966702E-2</c:v>
+                  <c:v>-3.4325342745215599E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.28364554608662101</c:v>
+                  <c:v>0.30574180130512701</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.16255261005615201</c:v>
+                  <c:v>0.164058677389505</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7.9263828875103304E-2</c:v>
+                  <c:v>8.9977264332620599E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.40813252878058598</c:v>
+                  <c:v>0.415752280282563</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.25411349623625301</c:v>
+                  <c:v>-0.238667494396758</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>8.4794825807384094E-2</c:v>
+                  <c:v>3.9999774820812399E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.23058518663630301</c:v>
+                  <c:v>0.26137693011122698</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.4865084613622004E-3</c:v>
+                  <c:v>-9.20742106763584E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-2.44596170202909E-2</c:v>
+                  <c:v>4.4746558827074004E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.39606338537205599</c:v>
+                  <c:v>0.42633033180812102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9844,11 +10534,722 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="331140960"/>
-        <c:axId val="331140568"/>
+        <c:axId val="309741440"/>
+        <c:axId val="309739480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="331140960"/>
+        <c:axId val="309741440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Projects</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309739480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="309739480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Crosss Correlation Coeffecient</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309741440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB">
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Cross Correlations Of LOC &amp; Issues-5 lag</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:tint val="88500"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$328:$N$427</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>-0.21268755948040899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12994945649850401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8815625743716701E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.1958317755470403E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.42749381660387398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23390547433348199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11240882670629899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23755753457730899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.104951796226547</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.118188954293289</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.23613241090606599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.111116685555184</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50816401869528904</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45829510226998299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.59020995877181703</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.7148141055992097E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.12089442165627901</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.323621277148258</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8911859133006099E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.291863374127039</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.116136228759843</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.215195470648672</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.181469774650313</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.3511199611978198E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.3180733011037401E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.34106985418179803</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.29293080330159399</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.2314690284862698E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.23140348164581601</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.54936768891367405</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-7.63828464315741E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.27839256398076301</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.37463841155190702</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.50432269207176506</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.27090979684237099</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.107269240426187</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.15417441923328601</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.240841749771595</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.14485204159220999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.19952107423505699</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.357344043016393</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.26089865365693499</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.106629190154638</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57005842245320903</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.13729777587754699</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-7.9164494723527698E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.50689859851849395</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.8703614141544096E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.51308749638321305</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.189467348122696</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.45265892054196399</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.37533976291330601</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.45873420532668202</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.40668405589108297</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.204073138675962</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.3685752857707399E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.206271289454794</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.18731636818293801</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.25908590416449301</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.35806368611746597</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.23969764664190399</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.267620919972478</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-8.6191611455813597E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.191005622037214</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.40921189345915798</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.33645844976717798</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.18349862829976499</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.15652669096011201</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.651978048078248</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.36212753143901899</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.19674891226305699</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.1057614926922701E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.19039682381328099</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.37800154535844099</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.34537112093630001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.26436443193572201</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.3902826956718896E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.39545471468392002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.41932210001939701</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.30116330663381202</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.160774071288455</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.18149786674204599</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.8537227586883104E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.9880417042223099E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.141059229066619</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-1.3183042913176299E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-8.87332717344161E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.22361862686944001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.28348893703529299</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-4.8962229811356797E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.31806797506975598</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.19557551680726101</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.103078556432205</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.39768911963704601</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.199840815385077</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.33868081384579E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.29203692643948997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.29912667150598E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.7514740669156303E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.45778750931873102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="309738304"/>
+        <c:axId val="309736344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="309738304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9960,12 +11361,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331140568"/>
+        <c:crossAx val="309736344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="331140568"/>
+        <c:axId val="309736344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10078,7 +11479,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331140960"/>
+        <c:crossAx val="309738304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10127,7 +11528,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10155,14 +11556,16 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Cross Correlations Of LOC &amp; Issues-7 lag</a:t>
+              <a:rPr lang="en-GB">
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Cross Correlations Of LOC &amp; Issues -3 lag</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10188,7 +11591,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -10234,309 +11637,309 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$328:$G$427</c:f>
+              <c:f>Sheet1!$U$328:$U$427</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>3.2049708612494301E-2</c:v>
+                  <c:v>-0.32437881730634399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2462801718406798E-2</c:v>
+                  <c:v>0.158999546913828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.58722383768976E-2</c:v>
+                  <c:v>7.3068076079590094E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.106902559817833</c:v>
+                  <c:v>2.12672684859781E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.43073801224288</c:v>
+                  <c:v>-0.39758451983045401</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13941220332019999</c:v>
+                  <c:v>0.114822038173479</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.100185744373209</c:v>
+                  <c:v>0.14103916390427501</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22349291513797701</c:v>
+                  <c:v>0.25417544649326801</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.125411663280416</c:v>
+                  <c:v>7.7268754974342699E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.141925015873205</c:v>
+                  <c:v>9.0110966899872899E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.27292917624318802</c:v>
+                  <c:v>-0.22025551020484399</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.119873607184293</c:v>
+                  <c:v>0.102800044967733</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.48771493325721599</c:v>
+                  <c:v>0.50823244364779296</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.44402764548293</c:v>
+                  <c:v>0.497374290795697</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.57896528055271002</c:v>
+                  <c:v>0.60160132792489796</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-7.1851670115690297E-2</c:v>
+                  <c:v>-5.4245255734361002E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.12672534591002799</c:v>
+                  <c:v>9.4921445340290997E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.226165718271084</c:v>
+                  <c:v>0.18095934903362201</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.0035557653767297E-2</c:v>
+                  <c:v>4.6463556509512602E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28475935868931501</c:v>
+                  <c:v>0.29249956016336598</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.16879100457214299</c:v>
+                  <c:v>-2.9997908816855299E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.24662668212879599</c:v>
+                  <c:v>0.183887547798745</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.21577633159460299</c:v>
+                  <c:v>0.152034387569601</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.24489428261282E-2</c:v>
+                  <c:v>8.7607768597920306E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-9.7586772228056996E-3</c:v>
+                  <c:v>8.8010374136104394E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.35806043431812901</c:v>
+                  <c:v>-0.34199642265867403</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.32600077814151501</c:v>
+                  <c:v>-0.262554312188852</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.5278114064794502E-2</c:v>
+                  <c:v>8.4350538971303499E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.19408697598872099</c:v>
+                  <c:v>-0.232931109866651</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.50279318939936601</c:v>
+                  <c:v>-0.57466265492496604</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-7.1254237611208096E-2</c:v>
+                  <c:v>-7.89621122759918E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.24627330644866099</c:v>
+                  <c:v>-0.29159525596517899</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.38127832299905701</c:v>
+                  <c:v>-0.40311503150543898</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.50325848960111597</c:v>
+                  <c:v>0.51463452431230094</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.24812020347858699</c:v>
+                  <c:v>0.28513478101526102</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.13779082856182401</c:v>
+                  <c:v>-8.0426992038737002E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.110341162607635</c:v>
+                  <c:v>-0.17885666616903101</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.24106284249034099</c:v>
+                  <c:v>0.28948565494412398</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.3262925021413405E-2</c:v>
+                  <c:v>0.120835268421703</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.19687613116163799</c:v>
+                  <c:v>-0.16379281400451401</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.34663064631842599</c:v>
+                  <c:v>0.38565282882589103</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.23197914476269299</c:v>
+                  <c:v>0.27609490419079702</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.7396093260419505E-2</c:v>
+                  <c:v>0.14727953043699299</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.54850384280527298</c:v>
+                  <c:v>0.59933940766909899</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.141674298818003</c:v>
+                  <c:v>-0.12915671271922199</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-7.9305674365182405E-2</c:v>
+                  <c:v>-8.1598509066619404E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.49027274404080101</c:v>
+                  <c:v>0.52572201430203802</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.4935367147750097E-2</c:v>
+                  <c:v>0.12763803752469</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.49424303353187499</c:v>
+                  <c:v>0.53460347896208404</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.179240223190479</c:v>
+                  <c:v>-0.19002093274009699</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.43776044320417301</c:v>
+                  <c:v>0.47724853160321801</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.36985766487645</c:v>
+                  <c:v>0.40233040377404899</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.47589062388497899</c:v>
+                  <c:v>-0.464493894297205</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.418868044686387</c:v>
+                  <c:v>-0.39383940342222901</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.21949568205282</c:v>
+                  <c:v>-0.19682277547953</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.12164371514431E-2</c:v>
+                  <c:v>3.2573529673688602E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.195955906446383</c:v>
+                  <c:v>0.21305994460268099</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.132641110374115</c:v>
+                  <c:v>0.19857610748728699</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.247590291689294</c:v>
+                  <c:v>-0.28115197228356098</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.35208036355470701</c:v>
+                  <c:v>0.37043717228978901</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.23613312845078999</c:v>
+                  <c:v>-0.231259676796404</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.25019948507211998</c:v>
+                  <c:v>0.27761017345565903</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1.8129669310009301E-2</c:v>
+                  <c:v>-1.71916632354084E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.184353110785547</c:v>
+                  <c:v>0.20469437396711601</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.42121837046656802</c:v>
+                  <c:v>0.38212408131502901</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.314596976504325</c:v>
+                  <c:v>0.35495617184274397</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.14991689679272599</c:v>
+                  <c:v>-0.15854659156940401</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.133794287314845</c:v>
+                  <c:v>0.17997261415419499</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.62236031480064902</c:v>
+                  <c:v>0.68082574602379897</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.34381433748615903</c:v>
+                  <c:v>0.31795353746591898</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.17976766543684999</c:v>
+                  <c:v>0.21414397374361699</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-3.46573156825759E-3</c:v>
+                  <c:v>5.0901947411377602E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.190851859186252</c:v>
+                  <c:v>0.181970107339085</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.35764423707684301</c:v>
+                  <c:v>0.39262914795818998</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.34741522145125497</c:v>
+                  <c:v>0.32460577540098701</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.27020948032863301</c:v>
+                  <c:v>-0.26162916421949101</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.6494083914943801E-3</c:v>
+                  <c:v>9.1035549300360306E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.37818450858769098</c:v>
+                  <c:v>0.40630762340579701</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.41607628202390801</c:v>
+                  <c:v>-0.44839611722013301</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.16712846679076501</c:v>
+                  <c:v>0.49431393385107902</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.144992484028756</c:v>
+                  <c:v>0.14956614184706299</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.15972853569620599</c:v>
+                  <c:v>0.193275107941275</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5.4923840364433499E-2</c:v>
+                  <c:v>6.1327294850181201E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.6893440570153899E-2</c:v>
+                  <c:v>3.2362302283538098E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.154118415873054</c:v>
+                  <c:v>-0.13183735210271399</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-8.3016788905477298E-2</c:v>
+                  <c:v>7.1559113504645097E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-8.4363608547845997E-2</c:v>
+                  <c:v>-6.6055595041539697E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.218743546338621</c:v>
+                  <c:v>-0.21097336569720801</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.27249809278270898</c:v>
+                  <c:v>0.29403938653980399</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-3.4325342745215599E-2</c:v>
+                  <c:v>-6.2788055890394795E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.30574180130512701</c:v>
+                  <c:v>0.34457088598354202</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.164058677389505</c:v>
+                  <c:v>0.19339363712147001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8.9977264332620599E-2</c:v>
+                  <c:v>0.109356823404496</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.415752280282563</c:v>
+                  <c:v>0.40466338778350402</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.238667494396758</c:v>
+                  <c:v>-0.18011616772362599</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.9999774820812399E-2</c:v>
+                  <c:v>0.135207669800226</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.26137693011122698</c:v>
+                  <c:v>0.30742833055234497</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-9.20742106763584E-3</c:v>
+                  <c:v>1.3374891891895099E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.4746558827074004E-3</c:v>
+                  <c:v>9.6623929762298402E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.42633033180812102</c:v>
+                  <c:v>0.48247638930652897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10551,11 +11954,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="401463832"/>
-        <c:axId val="401465008"/>
+        <c:axId val="309731248"/>
+        <c:axId val="309736736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="401463832"/>
+        <c:axId val="309731248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10667,12 +12070,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401465008"/>
+        <c:crossAx val="309736736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="401465008"/>
+        <c:axId val="309736736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10785,7 +12188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401463832"/>
+        <c:crossAx val="309731248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10834,7 +12237,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10862,14 +12265,28 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Cross Correlations Of LOC &amp; Issues-5 lag</a:t>
+              <a:rPr lang="en-GB">
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Cross Correlations Of LOC &amp; Issues</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0">
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> -1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB">
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> lag</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -10895,7 +12312,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -10941,309 +12358,309 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$328:$N$427</c:f>
+              <c:f>Sheet1!$AB$328:$AB$427</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-0.21268755948040899</c:v>
+                  <c:v>-0.29904744499078401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12994945649850401</c:v>
+                  <c:v>0.15096629227594899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8815625743716701E-2</c:v>
+                  <c:v>0.107443862339382</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.1958317755470403E-2</c:v>
+                  <c:v>9.0135688921107404E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.42749381660387398</c:v>
+                  <c:v>-0.33778834069618702</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23390547433348199</c:v>
+                  <c:v>0.12124312414867899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11240882670629899</c:v>
+                  <c:v>0.35545301536729801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23755753457730899</c:v>
+                  <c:v>0.25389361080549799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.104951796226547</c:v>
+                  <c:v>-8.8468892819516792E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.118188954293289</c:v>
+                  <c:v>9.4472720107678307E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.23613241090606599</c:v>
+                  <c:v>-0.168597319387742</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.111116685555184</c:v>
+                  <c:v>9.0212888355026694E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.50816401869528904</c:v>
+                  <c:v>0.49865552237626398</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.45829510226998299</c:v>
+                  <c:v>0.54217427819516495</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.59020995877181703</c:v>
+                  <c:v>0.61170453421068904</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4.7148141055992097E-2</c:v>
+                  <c:v>-6.1347041767567501E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.12089442165627901</c:v>
+                  <c:v>5.0160534911002502E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.323621277148258</c:v>
+                  <c:v>-0.18799673184278101</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8911859133006099E-2</c:v>
+                  <c:v>6.9243680543920397E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.291863374127039</c:v>
+                  <c:v>0.30084778953459401</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.116136228759843</c:v>
+                  <c:v>0.13058613389911999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.215195470648672</c:v>
+                  <c:v>6.4785366252535101E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.181469774650313</c:v>
+                  <c:v>3.5199456671511198E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.3511199611978198E-3</c:v>
+                  <c:v>1.73847741721402E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.3180733011037401E-2</c:v>
+                  <c:v>7.7264268126442506E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.34106985418179803</c:v>
+                  <c:v>-0.32855902043438401</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.29293080330159399</c:v>
+                  <c:v>-0.22651300466721599</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.2314690284862698E-2</c:v>
+                  <c:v>9.2978183433457096E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.23140348164581601</c:v>
+                  <c:v>-0.26753505311143899</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.54936768891367405</c:v>
+                  <c:v>-0.58575027003527202</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-7.63828464315741E-2</c:v>
+                  <c:v>-8.0641610011251294E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.27839256398076301</c:v>
+                  <c:v>-0.31565675189362402</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.37463841155190702</c:v>
+                  <c:v>-0.41580864568134801</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.50432269207176506</c:v>
+                  <c:v>0.480107733972432</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.27090979684237099</c:v>
+                  <c:v>0.306375784312715</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.107269240426187</c:v>
+                  <c:v>-4.1997452106995702E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.15417441923328601</c:v>
+                  <c:v>-0.197249521349043</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.240841749771595</c:v>
+                  <c:v>0.36029979980015298</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.14485204159220999</c:v>
+                  <c:v>1.3256729095568799E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.19952107423505699</c:v>
+                  <c:v>-0.12995716215761699</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.357344043016393</c:v>
+                  <c:v>0.38989782995289402</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.26089865365693499</c:v>
+                  <c:v>0.30324544849419599</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.106629190154638</c:v>
+                  <c:v>0.172391857564269</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.57005842245320903</c:v>
+                  <c:v>0.631413259658957</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.13729777587754699</c:v>
+                  <c:v>-0.12164948271158101</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-7.9164494723527698E-2</c:v>
+                  <c:v>-0.10669261295214499</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.50689859851849395</c:v>
+                  <c:v>0.54098461560492395</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.8703614141544096E-2</c:v>
+                  <c:v>0.13016033987835299</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.51308749638321305</c:v>
+                  <c:v>0.556556418933563</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.189467348122696</c:v>
+                  <c:v>-0.17756642942384099</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.45265892054196399</c:v>
+                  <c:v>0.50472770131654399</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.37533976291330601</c:v>
+                  <c:v>0.40960375508908198</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.45873420532668202</c:v>
+                  <c:v>-0.47092557882781</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.40668405589108297</c:v>
+                  <c:v>-0.36496303267207397</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.204073138675962</c:v>
+                  <c:v>-0.23015307064373</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.3685752857707399E-2</c:v>
+                  <c:v>3.8542321188679202E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.206271289454794</c:v>
+                  <c:v>0.22597325829286</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.18731636818293801</c:v>
+                  <c:v>0.188420420561484</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.25908590416449301</c:v>
+                  <c:v>-0.28390703754694502</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.35806368611746597</c:v>
+                  <c:v>0.38985979806101401</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.23969764664190399</c:v>
+                  <c:v>-0.23809612124732199</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.267620919972478</c:v>
+                  <c:v>0.28051814011571002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-8.6191611455813597E-3</c:v>
+                  <c:v>-5.4110668799136501E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.191005622037214</c:v>
+                  <c:v>0.20003254847309701</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.40921189345915798</c:v>
+                  <c:v>0.37139908629205798</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.33645844976717798</c:v>
+                  <c:v>0.38034045683135498</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.18349862829976499</c:v>
+                  <c:v>-0.138298597368293</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.15652669096011201</c:v>
+                  <c:v>0.19438955963683499</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.651978048078248</c:v>
+                  <c:v>0.71333661307332197</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.36212753143901899</c:v>
+                  <c:v>0.340524005937134</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.19674891226305699</c:v>
+                  <c:v>0.223236860812277</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.1057614926922701E-3</c:v>
+                  <c:v>6.5687438379856397E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.19039682381328099</c:v>
+                  <c:v>0.190355960115557</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.37800154535844099</c:v>
+                  <c:v>0.38651813376288102</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.34537112093630001</c:v>
+                  <c:v>0.30571625679552999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.26436443193572201</c:v>
+                  <c:v>-0.258852305908435</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.3902826956718896E-3</c:v>
+                  <c:v>1.2355988582789501E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.39545471468392002</c:v>
+                  <c:v>0.42552956871862502</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.41932210001939701</c:v>
+                  <c:v>-0.42832585947588903</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.30116330663381202</c:v>
+                  <c:v>0.17835776377455401</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.160774071288455</c:v>
+                  <c:v>0.15721165169539</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.18149786674204599</c:v>
+                  <c:v>0.19349357500046399</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.8537227586883104E-2</c:v>
+                  <c:v>4.30844513080487E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.9880417042223099E-2</c:v>
+                  <c:v>4.0294487811874002E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.141059229066619</c:v>
+                  <c:v>-0.174811967882153</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.3183042913176299E-2</c:v>
+                  <c:v>9.4028793411345193E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-8.87332717344161E-2</c:v>
+                  <c:v>-6.9191756015120995E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.22361862686944001</c:v>
+                  <c:v>-0.18973412347839899</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.28348893703529299</c:v>
+                  <c:v>0.30627977811873702</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-4.8962229811356797E-2</c:v>
+                  <c:v>-9.8199760779914894E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.31806797506975598</c:v>
+                  <c:v>0.38383986990281399</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.19557551680726101</c:v>
+                  <c:v>0.21593306271204199</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.103078556432205</c:v>
+                  <c:v>0.12919393677636401</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.39768911963704601</c:v>
+                  <c:v>0.40929036585461598</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.199840815385077</c:v>
+                  <c:v>-0.136777245697359</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.33868081384579E-2</c:v>
+                  <c:v>0.116433195214456</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.29203692643948997</c:v>
+                  <c:v>0.33557296370672302</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.29912667150598E-3</c:v>
+                  <c:v>2.1084595350569502E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.7514740669156303E-2</c:v>
+                  <c:v>0.166431543262544</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.45778750931873102</c:v>
+                  <c:v>0.51652697230990197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11258,11 +12675,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="396615232"/>
-        <c:axId val="330719288"/>
+        <c:axId val="309733208"/>
+        <c:axId val="309737520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="396615232"/>
+        <c:axId val="309733208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11374,12 +12791,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330719288"/>
+        <c:crossAx val="309737520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="330719288"/>
+        <c:axId val="309737520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11492,1429 +12909,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="396615232"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="1"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Cross Correlations Of LOC &amp; Issues -3 lag</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="88500"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="88500"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$U$328:$U$427</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>-0.32437881730634399</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.158999546913828</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.3068076079590094E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.12672684859781E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.39758451983045401</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.114822038173479</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.14103916390427501</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.25417544649326801</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.7268754974342699E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0110966899872899E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.22025551020484399</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.102800044967733</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.50823244364779296</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.497374290795697</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.60160132792489796</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-5.4245255734361002E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.4921445340290997E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.18095934903362201</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.6463556509512602E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.29249956016336598</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-2.9997908816855299E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.183887547798745</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.152034387569601</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.7607768597920306E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.8010374136104394E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.34199642265867403</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.262554312188852</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8.4350538971303499E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.232931109866651</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.57466265492496604</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-7.89621122759918E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.29159525596517899</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.40311503150543898</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.51463452431230094</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.28513478101526102</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-8.0426992038737002E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.17885666616903101</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.28948565494412398</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.120835268421703</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.16379281400451401</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.38565282882589103</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.27609490419079702</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.14727953043699299</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.59933940766909899</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.12915671271922199</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-8.1598509066619404E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.52572201430203802</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.12763803752469</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.53460347896208404</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.19002093274009699</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.47724853160321801</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.40233040377404899</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.464493894297205</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-0.39383940342222901</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-0.19682277547953</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.2573529673688602E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.21305994460268099</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.19857610748728699</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-0.28115197228356098</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.37043717228978901</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-0.231259676796404</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.27761017345565903</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-1.71916632354084E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.20469437396711601</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.38212408131502901</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.35495617184274397</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-0.15854659156940401</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.17997261415419499</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.68082574602379897</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.31795353746591898</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.21414397374361699</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5.0901947411377602E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.181970107339085</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.39262914795818998</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.32460577540098701</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-0.26162916421949101</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>9.1035549300360306E-3</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.40630762340579701</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-0.44839611722013301</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.49431393385107902</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.14956614184706299</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.193275107941275</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>6.1327294850181201E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3.2362302283538098E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-0.13183735210271399</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>7.1559113504645097E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-6.6055595041539697E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-0.21097336569720801</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.29403938653980399</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-6.2788055890394795E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.34457088598354202</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.19339363712147001</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.109356823404496</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.40466338778350402</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-0.18011616772362599</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.135207669800226</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.30742833055234497</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1.3374891891895099E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>9.6623929762298402E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.48247638930652897</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="391961440"/>
-        <c:axId val="391961832"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="391961440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Projects</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="391961832"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="391961832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Crosss Correlation Coeffecient</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="391961440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="1"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Cross Correlations Of LOC &amp; Issues</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> -1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t> lag</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:tint val="88500"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:tint val="88500"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$AB$328:$AB$427</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>-0.29904744499078401</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15096629227594899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.107443862339382</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.0135688921107404E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.33778834069618702</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.12124312414867899</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.35545301536729801</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.25389361080549799</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-8.8468892819516792E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.4472720107678307E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.168597319387742</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.0212888355026694E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.49865552237626398</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.54217427819516495</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.61170453421068904</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-6.1347041767567501E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.0160534911002502E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.18799673184278101</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.9243680543920397E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.30084778953459401</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.13058613389911999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.4785366252535101E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.5199456671511198E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.73847741721402E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.7264268126442506E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.32855902043438401</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.22651300466721599</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.2978183433457096E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.26753505311143899</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.58575027003527202</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-8.0641610011251294E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.31565675189362402</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.41580864568134801</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.480107733972432</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.306375784312715</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-4.1997452106995702E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.197249521349043</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.36029979980015298</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.3256729095568799E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.12995716215761699</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.38989782995289402</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.30324544849419599</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.172391857564269</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.631413259658957</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.12164948271158101</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.10669261295214499</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.54098461560492395</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.13016033987835299</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.556556418933563</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.17756642942384099</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.50472770131654399</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.40960375508908198</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.47092557882781</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-0.36496303267207397</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-0.23015307064373</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.8542321188679202E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.22597325829286</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.188420420561484</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-0.28390703754694502</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.38985979806101401</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-0.23809612124732199</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.28051814011571002</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-5.4110668799136501E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.20003254847309701</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.37139908629205798</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.38034045683135498</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-0.138298597368293</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.19438955963683499</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.71333661307332197</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.340524005937134</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.223236860812277</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>6.5687438379856397E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.190355960115557</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.38651813376288102</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.30571625679552999</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-0.258852305908435</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.2355988582789501E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.42552956871862502</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-0.42832585947588903</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.17835776377455401</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.15721165169539</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.19349357500046399</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4.30844513080487E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>4.0294487811874002E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-0.174811967882153</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>9.4028793411345193E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-6.9191756015120995E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-0.18973412347839899</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.30627977811873702</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-9.8199760779914894E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.38383986990281399</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.21593306271204199</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.12919393677636401</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.40929036585461598</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-0.136777245697359</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.116433195214456</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.33557296370672302</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.1084595350569502E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.166431543262544</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.51652697230990197</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="392770184"/>
-        <c:axId val="392770968"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="392770184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Projects</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="392770968"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="392770968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Crosss Correlation Coeffecient</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="392770184"/>
+        <c:crossAx val="309733208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12991,7 +12986,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -13024,7 +13019,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -13387,11 +13382,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="401461872"/>
-        <c:axId val="401462656"/>
+        <c:axId val="309726936"/>
+        <c:axId val="309732424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="401461872"/>
+        <c:axId val="309726936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13425,7 +13420,7 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -13458,7 +13453,7 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -13495,7 +13490,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -13503,12 +13498,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401462656"/>
+        <c:crossAx val="309732424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="401462656"/>
+        <c:axId val="309732424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13542,7 +13537,7 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -13575,7 +13570,7 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -13613,7 +13608,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -13621,7 +13616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401461872"/>
+        <c:crossAx val="309726936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13657,7 +13652,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -13721,7 +13718,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14105,11 +14101,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="305784944"/>
-        <c:axId val="305785728"/>
+        <c:axId val="310483816"/>
+        <c:axId val="310484600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="305784944"/>
+        <c:axId val="310483816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14157,7 +14153,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14223,12 +14218,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305785728"/>
+        <c:crossAx val="310484600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="305785728"/>
+        <c:axId val="310484600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14276,7 +14271,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14343,7 +14337,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305784944"/>
+        <c:crossAx val="310483816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14443,7 +14437,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14827,11 +14820,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307900720"/>
-        <c:axId val="307905424"/>
+        <c:axId val="310484992"/>
+        <c:axId val="310489696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307900720"/>
+        <c:axId val="310484992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14879,7 +14872,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14945,12 +14937,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307905424"/>
+        <c:crossAx val="310489696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307905424"/>
+        <c:axId val="310489696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14998,7 +14990,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15065,7 +15056,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307900720"/>
+        <c:crossAx val="310484992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15165,7 +15156,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15549,11 +15539,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307906600"/>
-        <c:axId val="307907384"/>
+        <c:axId val="310490872"/>
+        <c:axId val="310491264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307906600"/>
+        <c:axId val="310490872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15601,7 +15591,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15667,12 +15656,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307907384"/>
+        <c:crossAx val="310491264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307907384"/>
+        <c:axId val="310491264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15720,7 +15709,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -15787,7 +15775,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307906600"/>
+        <c:crossAx val="310490872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16270,11 +16258,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307901112"/>
-        <c:axId val="307900328"/>
+        <c:axId val="310490088"/>
+        <c:axId val="310492440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307901112"/>
+        <c:axId val="310490088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16387,12 +16375,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307900328"/>
+        <c:crossAx val="310492440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307900328"/>
+        <c:axId val="310492440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16506,7 +16494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307901112"/>
+        <c:crossAx val="310490088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16606,7 +16594,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16696,7 +16683,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16756,11 +16742,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="307906992"/>
-        <c:axId val="307904248"/>
+        <c:axId val="308628000"/>
+        <c:axId val="308629960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="307906992"/>
+        <c:axId val="308628000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16803,7 +16789,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16870,7 +16855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307904248"/>
+        <c:crossAx val="308629960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16878,7 +16863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="307904248"/>
+        <c:axId val="308629960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16926,7 +16911,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16987,7 +16971,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307906992"/>
+        <c:crossAx val="308628000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17078,7 +17062,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17462,11 +17445,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307901504"/>
-        <c:axId val="307903464"/>
+        <c:axId val="308628784"/>
+        <c:axId val="308632704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307901504"/>
+        <c:axId val="308628784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17514,7 +17497,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17580,12 +17562,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307903464"/>
+        <c:crossAx val="308632704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307903464"/>
+        <c:axId val="308632704"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -17708,7 +17690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307901504"/>
+        <c:crossAx val="308628784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18190,11 +18172,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307901896"/>
-        <c:axId val="307904640"/>
+        <c:axId val="308629568"/>
+        <c:axId val="308633880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307901896"/>
+        <c:axId val="308629568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18242,7 +18224,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18308,12 +18289,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307904640"/>
+        <c:crossAx val="308633880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307904640"/>
+        <c:axId val="308633880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18435,7 +18416,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307901896"/>
+        <c:crossAx val="308629568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -33662,10 +33643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX427"/>
+  <dimension ref="A1:AX429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N311" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH328" sqref="AH328:AH427"/>
+    <sheetView tabSelected="1" topLeftCell="A419" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A429" sqref="A429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41805,6 +41786,11 @@
         <v>0.52240982189541296</v>
       </c>
     </row>
+    <row r="429" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
